--- a/capstone-data-template.xlsx
+++ b/capstone-data-template.xlsx
@@ -26,28 +26,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>no threads</t>
-  </si>
-  <si>
-    <t>Random data set</t>
-  </si>
-  <si>
     <t>Run/elements</t>
-  </si>
-  <si>
-    <t>total time: 60 minutes 3 seconds</t>
-  </si>
-  <si>
-    <t>2 cores</t>
-  </si>
-  <si>
-    <t>Windows 10 VM</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
     <t>Standard Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cores: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of threads: </t>
+  </si>
+  <si>
+    <t>Data Set Type:</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M689"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K689"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,32 +460,32 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -529,11 +529,11 @@
         <v>1000</v>
       </c>
       <c r="L8" s="2" t="e">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" ref="L8:L24" si="0">AVERAGE(B8:K8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="5" t="e">
-        <f>_xlfn.STDEV.P(B8:K8)</f>
+        <f t="shared" ref="M8:M24" si="1">_xlfn.STDEV.P(B8:K8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -542,11 +542,11 @@
         <v>2000</v>
       </c>
       <c r="L9" s="2" t="e">
-        <f>AVERAGE(B9:K9)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="5" t="e">
-        <f>_xlfn.STDEV.P(B9:K9)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -555,11 +555,11 @@
         <v>4000</v>
       </c>
       <c r="L10" s="2" t="e">
-        <f>AVERAGE(B10:K10)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="5" t="e">
-        <f>_xlfn.STDEV.P(B10:K10)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -568,11 +568,11 @@
         <v>8000</v>
       </c>
       <c r="L11" s="2" t="e">
-        <f>AVERAGE(B11:K11)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="5" t="e">
-        <f>_xlfn.STDEV.P(B11:K11)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -581,11 +581,11 @@
         <v>16000</v>
       </c>
       <c r="L12" s="2" t="e">
-        <f>AVERAGE(B12:K12)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="5" t="e">
-        <f>_xlfn.STDEV.P(B12:K12)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -594,11 +594,11 @@
         <v>32000</v>
       </c>
       <c r="L13" s="2" t="e">
-        <f>AVERAGE(B13:K13)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="5" t="e">
-        <f>_xlfn.STDEV.P(B13:K13)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -607,11 +607,11 @@
         <v>64000</v>
       </c>
       <c r="L14" s="2" t="e">
-        <f>AVERAGE(B14:K14)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="5" t="e">
-        <f>_xlfn.STDEV.P(B14:K14)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -620,11 +620,11 @@
         <v>128000</v>
       </c>
       <c r="L15" s="2" t="e">
-        <f>AVERAGE(B15:K15)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="5" t="e">
-        <f>_xlfn.STDEV.P(B15:K15)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -633,11 +633,11 @@
         <v>256000</v>
       </c>
       <c r="L16" s="2" t="e">
-        <f>AVERAGE(B16:K16)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="5" t="e">
-        <f>_xlfn.STDEV.P(B16:K16)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -646,11 +646,11 @@
         <v>512000</v>
       </c>
       <c r="L17" s="2" t="e">
-        <f>AVERAGE(B17:K17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="5" t="e">
-        <f>_xlfn.STDEV.P(B17:K17)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -659,11 +659,11 @@
         <v>1024000</v>
       </c>
       <c r="L18" s="2" t="e">
-        <f>AVERAGE(B18:K18)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="5" t="e">
-        <f>_xlfn.STDEV.P(B18:K18)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -672,11 +672,11 @@
         <v>2048000</v>
       </c>
       <c r="L19" s="2" t="e">
-        <f>AVERAGE(B19:K19)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="5" t="e">
-        <f>_xlfn.STDEV.P(B19:K19)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -685,11 +685,11 @@
         <v>4096000</v>
       </c>
       <c r="L20" s="2" t="e">
-        <f>AVERAGE(B20:K20)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="5" t="e">
-        <f>_xlfn.STDEV.P(B20:K20)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -698,11 +698,11 @@
         <v>8192000</v>
       </c>
       <c r="L21" s="2" t="e">
-        <f>AVERAGE(B21:K21)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="5" t="e">
-        <f>_xlfn.STDEV.P(B21:K21)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -711,11 +711,11 @@
         <v>16384000</v>
       </c>
       <c r="L22" s="2" t="e">
-        <f>AVERAGE(B22:K22)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="5" t="e">
-        <f>_xlfn.STDEV.P(B22:K22)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -724,11 +724,11 @@
         <v>32768000</v>
       </c>
       <c r="L23" s="2" t="e">
-        <f>AVERAGE(B23:K23)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="5" t="e">
-        <f>_xlfn.STDEV.P(B23:K23)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -737,11 +737,11 @@
         <v>65536000</v>
       </c>
       <c r="L24" s="2" t="e">
-        <f>AVERAGE(B24:K24)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="5" t="e">
-        <f>_xlfn.STDEV.P(B24:K24)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="5" t="e">
-        <f>_xlfn.STDEV.P(B28:K28)</f>
+        <f t="shared" ref="M28:M43" si="2">_xlfn.STDEV.P(B28:K28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="5" t="e">
-        <f>_xlfn.STDEV.P(B29:K29)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="5" t="e">
-        <f>_xlfn.STDEV.P(B30:K30)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -802,11 +802,11 @@
         <v>16000</v>
       </c>
       <c r="L31" s="2" t="e">
-        <f>AVERAGE(B30:K30)</f>
+        <f>AVERAGE(B31:K31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="5" t="e">
-        <f>_xlfn.STDEV.P(B31:K31)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -815,11 +815,11 @@
         <v>32000</v>
       </c>
       <c r="L32" s="2" t="e">
-        <f>AVERAGE(B32:K32)</f>
+        <f t="shared" ref="L32:L43" si="3">AVERAGE(B32:K32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="5" t="e">
-        <f>_xlfn.STDEV.P(B32:K32)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -828,11 +828,11 @@
         <v>64000</v>
       </c>
       <c r="L33" s="2" t="e">
-        <f>AVERAGE(B33:K33)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="5" t="e">
-        <f>_xlfn.STDEV.P(B33:K33)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -841,11 +841,11 @@
         <v>128000</v>
       </c>
       <c r="L34" s="2" t="e">
-        <f>AVERAGE(B34:K34)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="5" t="e">
-        <f>_xlfn.STDEV.P(B34:K34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -854,11 +854,11 @@
         <v>256000</v>
       </c>
       <c r="L35" s="2" t="e">
-        <f>AVERAGE(B35:K35)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="5" t="e">
-        <f>_xlfn.STDEV.P(B35:K35)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -867,11 +867,11 @@
         <v>512000</v>
       </c>
       <c r="L36" s="2" t="e">
-        <f>AVERAGE(B36:K36)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="5" t="e">
-        <f>_xlfn.STDEV.P(B36:K36)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -880,11 +880,11 @@
         <v>1024000</v>
       </c>
       <c r="L37" s="2" t="e">
-        <f>AVERAGE(B37:K37)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="5" t="e">
-        <f>_xlfn.STDEV.P(B37:K37)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -893,11 +893,11 @@
         <v>2048000</v>
       </c>
       <c r="L38" s="2" t="e">
-        <f>AVERAGE(B38:K38)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="5" t="e">
-        <f>_xlfn.STDEV.P(B38:K38)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -906,11 +906,11 @@
         <v>4096000</v>
       </c>
       <c r="L39" s="2" t="e">
-        <f>AVERAGE(B39:K39)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="5" t="e">
-        <f>_xlfn.STDEV.P(B39:K39)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -919,11 +919,11 @@
         <v>8192000</v>
       </c>
       <c r="L40" s="2" t="e">
-        <f>AVERAGE(B40:K40)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="5" t="e">
-        <f>_xlfn.STDEV.P(B40:K40)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -932,11 +932,11 @@
         <v>16384000</v>
       </c>
       <c r="L41" s="2" t="e">
-        <f>AVERAGE(B41:K41)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="5" t="e">
-        <f>_xlfn.STDEV.P(B41:K41)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -945,11 +945,11 @@
         <v>32768000</v>
       </c>
       <c r="L42" s="2" t="e">
-        <f>AVERAGE(B42:K42)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="5" t="e">
-        <f>_xlfn.STDEV.P(B42:K42)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -958,11 +958,11 @@
         <v>65536000</v>
       </c>
       <c r="L43" s="2" t="e">
-        <f>AVERAGE(B43:K43)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="5" t="e">
-        <f>_xlfn.STDEV.P(B43:K43)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -971,11 +971,11 @@
         <v>1000</v>
       </c>
       <c r="L46" s="2" t="e">
-        <f>AVERAGE(B46:K46)</f>
+        <f t="shared" ref="L46:L62" si="4">AVERAGE(B46:K46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="5" t="e">
-        <f>_xlfn.STDEV.P(B46:K46)</f>
+        <f t="shared" ref="M46:M62" si="5">_xlfn.STDEV.P(B46:K46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -984,11 +984,11 @@
         <v>2000</v>
       </c>
       <c r="L47" s="2" t="e">
-        <f>AVERAGE(B47:K47)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="5" t="e">
-        <f>_xlfn.STDEV.P(B47:K47)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -997,11 +997,11 @@
         <v>4000</v>
       </c>
       <c r="L48" s="2" t="e">
-        <f>AVERAGE(B48:K48)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M48" s="5" t="e">
-        <f>_xlfn.STDEV.P(B48:K48)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1010,11 +1010,11 @@
         <v>8000</v>
       </c>
       <c r="L49" s="2" t="e">
-        <f>AVERAGE(B49:K49)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M49" s="5" t="e">
-        <f>_xlfn.STDEV.P(B49:K49)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1023,11 +1023,11 @@
         <v>16000</v>
       </c>
       <c r="L50" s="2" t="e">
-        <f>AVERAGE(B50:K50)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M50" s="5" t="e">
-        <f>_xlfn.STDEV.P(B50:K50)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1036,11 +1036,11 @@
         <v>32000</v>
       </c>
       <c r="L51" s="2" t="e">
-        <f>AVERAGE(B51:K51)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M51" s="5" t="e">
-        <f>_xlfn.STDEV.P(B51:K51)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1049,11 +1049,11 @@
         <v>64000</v>
       </c>
       <c r="L52" s="2" t="e">
-        <f>AVERAGE(B52:K52)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" s="5" t="e">
-        <f>_xlfn.STDEV.P(B52:K52)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1062,11 +1062,11 @@
         <v>128000</v>
       </c>
       <c r="L53" s="2" t="e">
-        <f>AVERAGE(B53:K53)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="5" t="e">
-        <f>_xlfn.STDEV.P(B53:K53)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1075,11 +1075,11 @@
         <v>256000</v>
       </c>
       <c r="L54" s="2" t="e">
-        <f>AVERAGE(B54:K54)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="5" t="e">
-        <f>_xlfn.STDEV.P(B54:K54)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1088,11 +1088,11 @@
         <v>512000</v>
       </c>
       <c r="L55" s="2" t="e">
-        <f>AVERAGE(B55:K55)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="5" t="e">
-        <f>_xlfn.STDEV.P(B55:K55)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1101,11 +1101,11 @@
         <v>1024000</v>
       </c>
       <c r="L56" s="2" t="e">
-        <f>AVERAGE(B56:K56)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M56" s="5" t="e">
-        <f>_xlfn.STDEV.P(B56:K56)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1114,11 +1114,11 @@
         <v>2048000</v>
       </c>
       <c r="L57" s="4" t="e">
-        <f>AVERAGE(B57:K57)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M57" s="5" t="e">
-        <f>_xlfn.STDEV.P(B57:K57)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1127,11 +1127,11 @@
         <v>4096000</v>
       </c>
       <c r="L58" s="2" t="e">
-        <f>AVERAGE(B58:K58)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="5" t="e">
-        <f>_xlfn.STDEV.P(B58:K58)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1140,11 +1140,11 @@
         <v>8192000</v>
       </c>
       <c r="L59" s="2" t="e">
-        <f>AVERAGE(B59:K59)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="5" t="e">
-        <f>_xlfn.STDEV.P(B59:K59)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1153,11 +1153,11 @@
         <v>16384000</v>
       </c>
       <c r="L60" s="2" t="e">
-        <f>AVERAGE(B60:K60)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" s="5" t="e">
-        <f>_xlfn.STDEV.P(B60:K60)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1166,11 +1166,11 @@
         <v>32768000</v>
       </c>
       <c r="L61" s="2" t="e">
-        <f>AVERAGE(B61:K61)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="5" t="e">
-        <f>_xlfn.STDEV.P(B61:K61)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1179,11 +1179,11 @@
         <v>65536000</v>
       </c>
       <c r="L62" s="2" t="e">
-        <f>AVERAGE(B62:K62)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="5" t="e">
-        <f>_xlfn.STDEV.P(B62:K62)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1192,11 +1192,11 @@
         <v>1000</v>
       </c>
       <c r="L65" s="2" t="e">
-        <f>AVERAGE(B65:K65)</f>
+        <f t="shared" ref="L65:L81" si="6">AVERAGE(B65:K65)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="5" t="e">
-        <f>_xlfn.STDEV.P(B65:K65)</f>
+        <f t="shared" ref="M65:M81" si="7">_xlfn.STDEV.P(B65:K65)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1205,11 +1205,11 @@
         <v>2000</v>
       </c>
       <c r="L66" s="2" t="e">
-        <f>AVERAGE(B66:K66)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M66" s="5" t="e">
-        <f>_xlfn.STDEV.P(B66:K66)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
         <v>4000</v>
       </c>
       <c r="L67" s="2" t="e">
-        <f>AVERAGE(B67:K67)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="5" t="e">
-        <f>_xlfn.STDEV.P(B67:K67)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1231,11 +1231,11 @@
         <v>8000</v>
       </c>
       <c r="L68" s="2" t="e">
-        <f>AVERAGE(B68:K68)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M68" s="5" t="e">
-        <f>_xlfn.STDEV.P(B68:K68)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1244,11 +1244,11 @@
         <v>16000</v>
       </c>
       <c r="L69" s="2" t="e">
-        <f>AVERAGE(B69:K69)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M69" s="5" t="e">
-        <f>_xlfn.STDEV.P(B69:K69)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1257,11 +1257,11 @@
         <v>32000</v>
       </c>
       <c r="L70" s="2" t="e">
-        <f>AVERAGE(B70:K70)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M70" s="5" t="e">
-        <f>_xlfn.STDEV.P(B70:K70)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1270,11 +1270,11 @@
         <v>64000</v>
       </c>
       <c r="L71" s="2" t="e">
-        <f>AVERAGE(B71:K71)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M71" s="5" t="e">
-        <f>_xlfn.STDEV.P(B71:K71)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1283,11 +1283,11 @@
         <v>128000</v>
       </c>
       <c r="L72" s="2" t="e">
-        <f>AVERAGE(B72:K72)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M72" s="5" t="e">
-        <f>_xlfn.STDEV.P(B72:K72)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1296,11 +1296,11 @@
         <v>256000</v>
       </c>
       <c r="L73" s="2" t="e">
-        <f>AVERAGE(B73:K73)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M73" s="5" t="e">
-        <f>_xlfn.STDEV.P(B73:K73)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1309,11 +1309,11 @@
         <v>512000</v>
       </c>
       <c r="L74" s="2" t="e">
-        <f>AVERAGE(B74:K74)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M74" s="5" t="e">
-        <f>_xlfn.STDEV.P(B74:K74)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1322,11 +1322,11 @@
         <v>1024000</v>
       </c>
       <c r="L75" s="2" t="e">
-        <f>AVERAGE(B75:K75)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M75" s="5" t="e">
-        <f>_xlfn.STDEV.P(B75:K75)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1335,11 +1335,11 @@
         <v>2048000</v>
       </c>
       <c r="L76" s="2" t="e">
-        <f>AVERAGE(B76:K76)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M76" s="5" t="e">
-        <f>_xlfn.STDEV.P(B76:K76)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1348,11 +1348,11 @@
         <v>4096000</v>
       </c>
       <c r="L77" s="2" t="e">
-        <f>AVERAGE(B77:K77)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M77" s="5" t="e">
-        <f>_xlfn.STDEV.P(B77:K77)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1361,11 +1361,11 @@
         <v>8192000</v>
       </c>
       <c r="L78" s="2" t="e">
-        <f>AVERAGE(B78:K78)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M78" s="5" t="e">
-        <f>_xlfn.STDEV.P(B78:K78)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1374,11 +1374,11 @@
         <v>16384000</v>
       </c>
       <c r="L79" s="2" t="e">
-        <f>AVERAGE(B79:K79)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M79" s="5" t="e">
-        <f>_xlfn.STDEV.P(B79:K79)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1387,11 +1387,11 @@
         <v>32768000</v>
       </c>
       <c r="L80" s="2" t="e">
-        <f>AVERAGE(B80:K80)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M80" s="5" t="e">
-        <f>_xlfn.STDEV.P(B80:K80)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1400,11 +1400,11 @@
         <v>65536000</v>
       </c>
       <c r="L81" s="2" t="e">
-        <f>AVERAGE(B81:K81)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M81" s="5" t="e">
-        <f>_xlfn.STDEV.P(B81:K81)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1413,11 +1413,11 @@
         <v>1000</v>
       </c>
       <c r="L84" s="2" t="e">
-        <f>AVERAGE(B84:K84)</f>
+        <f t="shared" ref="L84:L100" si="8">AVERAGE(B84:K84)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M84" s="5" t="e">
-        <f>_xlfn.STDEV.P(B84:K84)</f>
+        <f t="shared" ref="M84:M100" si="9">_xlfn.STDEV.P(B84:K84)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1426,11 +1426,11 @@
         <v>2000</v>
       </c>
       <c r="L85" s="2" t="e">
-        <f>AVERAGE(B85:K85)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M85" s="5" t="e">
-        <f>_xlfn.STDEV.P(B85:K85)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1439,11 +1439,11 @@
         <v>4000</v>
       </c>
       <c r="L86" s="2" t="e">
-        <f>AVERAGE(B86:K86)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M86" s="5" t="e">
-        <f>_xlfn.STDEV.P(B86:K86)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         <v>8000</v>
       </c>
       <c r="L87" s="2" t="e">
-        <f>AVERAGE(B87:K87)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M87" s="5" t="e">
-        <f>_xlfn.STDEV.P(B87:K87)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1465,11 +1465,11 @@
         <v>16000</v>
       </c>
       <c r="L88" s="2" t="e">
-        <f>AVERAGE(B88:K88)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M88" s="5" t="e">
-        <f>_xlfn.STDEV.P(B88:K88)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1478,11 +1478,11 @@
         <v>32000</v>
       </c>
       <c r="L89" s="2" t="e">
-        <f>AVERAGE(B89:K89)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M89" s="5" t="e">
-        <f>_xlfn.STDEV.P(B89:K89)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1491,11 +1491,11 @@
         <v>64000</v>
       </c>
       <c r="L90" s="2" t="e">
-        <f>AVERAGE(B90:K90)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M90" s="5" t="e">
-        <f>_xlfn.STDEV.P(B90:K90)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1504,11 +1504,11 @@
         <v>128000</v>
       </c>
       <c r="L91" s="2" t="e">
-        <f>AVERAGE(B91:K91)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M91" s="5" t="e">
-        <f>_xlfn.STDEV.P(B91:K91)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1517,11 +1517,11 @@
         <v>256000</v>
       </c>
       <c r="L92" s="2" t="e">
-        <f>AVERAGE(B92:K92)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M92" s="5" t="e">
-        <f>_xlfn.STDEV.P(B92:K92)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1530,11 +1530,11 @@
         <v>512000</v>
       </c>
       <c r="L93" s="2" t="e">
-        <f>AVERAGE(B93:K93)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M93" s="5" t="e">
-        <f>_xlfn.STDEV.P(B93:K93)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1543,11 +1543,11 @@
         <v>1024000</v>
       </c>
       <c r="L94" s="2" t="e">
-        <f>AVERAGE(B94:K94)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M94" s="5" t="e">
-        <f>_xlfn.STDEV.P(B94:K94)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1556,11 +1556,11 @@
         <v>2048000</v>
       </c>
       <c r="L95" s="2" t="e">
-        <f>AVERAGE(B95:K95)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M95" s="5" t="e">
-        <f>_xlfn.STDEV.P(B95:K95)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1569,11 +1569,11 @@
         <v>4096000</v>
       </c>
       <c r="L96" s="2" t="e">
-        <f>AVERAGE(B96:K96)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M96" s="5" t="e">
-        <f>_xlfn.STDEV.P(B96:K96)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1582,11 +1582,11 @@
         <v>8192000</v>
       </c>
       <c r="L97" s="2" t="e">
-        <f>AVERAGE(B97:K97)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M97" s="5" t="e">
-        <f>_xlfn.STDEV.P(B97:K97)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1595,11 +1595,11 @@
         <v>16384000</v>
       </c>
       <c r="L98" s="2" t="e">
-        <f>AVERAGE(B98:K98)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M98" s="5" t="e">
-        <f>_xlfn.STDEV.P(B98:K98)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1608,11 +1608,11 @@
         <v>32768000</v>
       </c>
       <c r="L99" s="2" t="e">
-        <f>AVERAGE(B99:K99)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M99" s="5" t="e">
-        <f>_xlfn.STDEV.P(B99:K99)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1621,11 +1621,11 @@
         <v>65536000</v>
       </c>
       <c r="L100" s="2" t="e">
-        <f>AVERAGE(B100:K100)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M100" s="5" t="e">
-        <f>_xlfn.STDEV.P(B100:K100)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
         <v>1000</v>
       </c>
       <c r="L103" s="2" t="e">
-        <f>AVERAGE(B103:K103)</f>
+        <f t="shared" ref="L103:L119" si="10">AVERAGE(B103:K103)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M103" s="5" t="e">
-        <f>_xlfn.STDEV.P(B103:K103)</f>
+        <f t="shared" ref="M103:M119" si="11">_xlfn.STDEV.P(B103:K103)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         <v>2000</v>
       </c>
       <c r="L104" s="2" t="e">
-        <f>AVERAGE(B104:K104)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M104" s="5" t="e">
-        <f>_xlfn.STDEV.P(B104:K104)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1660,11 +1660,11 @@
         <v>4000</v>
       </c>
       <c r="L105" s="2" t="e">
-        <f>AVERAGE(B105:K105)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M105" s="5" t="e">
-        <f>_xlfn.STDEV.P(B105:K105)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1673,11 +1673,11 @@
         <v>8000</v>
       </c>
       <c r="L106" s="2" t="e">
-        <f>AVERAGE(B106:K106)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M106" s="5" t="e">
-        <f>_xlfn.STDEV.P(B106:K106)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1686,11 +1686,11 @@
         <v>16000</v>
       </c>
       <c r="L107" s="2" t="e">
-        <f>AVERAGE(B107:K107)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M107" s="5" t="e">
-        <f>_xlfn.STDEV.P(B107:K107)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1699,11 +1699,11 @@
         <v>32000</v>
       </c>
       <c r="L108" s="2" t="e">
-        <f>AVERAGE(B108:K108)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M108" s="5" t="e">
-        <f>_xlfn.STDEV.P(B108:K108)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1712,11 +1712,11 @@
         <v>64000</v>
       </c>
       <c r="L109" s="2" t="e">
-        <f>AVERAGE(B109:K109)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M109" s="5" t="e">
-        <f>_xlfn.STDEV.P(B109:K109)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
         <v>128000</v>
       </c>
       <c r="L110" s="2" t="e">
-        <f>AVERAGE(B110:K110)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M110" s="5" t="e">
-        <f>_xlfn.STDEV.P(B110:K110)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1738,11 +1738,11 @@
         <v>256000</v>
       </c>
       <c r="L111" s="2" t="e">
-        <f>AVERAGE(B111:K111)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M111" s="5" t="e">
-        <f>_xlfn.STDEV.P(B111:K111)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
         <v>512000</v>
       </c>
       <c r="L112" s="2" t="e">
-        <f>AVERAGE(B112:K112)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M112" s="5" t="e">
-        <f>_xlfn.STDEV.P(B112:K112)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1764,11 +1764,11 @@
         <v>1024000</v>
       </c>
       <c r="L113" s="2" t="e">
-        <f>AVERAGE(B113:K113)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M113" s="5" t="e">
-        <f>_xlfn.STDEV.P(B113:K113)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         <v>2048000</v>
       </c>
       <c r="L114" s="2" t="e">
-        <f>AVERAGE(B114:K114)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M114" s="5" t="e">
-        <f>_xlfn.STDEV.P(B114:K114)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1790,11 +1790,11 @@
         <v>4096000</v>
       </c>
       <c r="L115" s="2" t="e">
-        <f>AVERAGE(B115:K115)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M115" s="5" t="e">
-        <f>_xlfn.STDEV.P(B115:K115)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1803,11 +1803,11 @@
         <v>8192000</v>
       </c>
       <c r="L116" s="2" t="e">
-        <f>AVERAGE(B116:K116)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M116" s="5" t="e">
-        <f>_xlfn.STDEV.P(B116:K116)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1816,11 +1816,11 @@
         <v>16384000</v>
       </c>
       <c r="L117" s="2" t="e">
-        <f>AVERAGE(B117:K117)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M117" s="5" t="e">
-        <f>_xlfn.STDEV.P(B117:K117)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1829,11 +1829,11 @@
         <v>32768000</v>
       </c>
       <c r="L118" s="2" t="e">
-        <f>AVERAGE(B118:K118)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M118" s="5" t="e">
-        <f>_xlfn.STDEV.P(B118:K118)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1842,11 +1842,11 @@
         <v>65536000</v>
       </c>
       <c r="L119" s="2" t="e">
-        <f>AVERAGE(B119:K119)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M119" s="5" t="e">
-        <f>_xlfn.STDEV.P(B119:K119)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M122" s="5" t="e">
-        <f>_xlfn.STDEV.P(B122:K122)</f>
+        <f t="shared" ref="M122:M138" si="12">_xlfn.STDEV.P(B122:K122)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M123" s="5" t="e">
-        <f>_xlfn.STDEV.P(B123:K123)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M124" s="5" t="e">
-        <f>_xlfn.STDEV.P(B124:K124)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M125" s="5" t="e">
-        <f>_xlfn.STDEV.P(B125:K125)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1907,11 +1907,11 @@
         <v>16000</v>
       </c>
       <c r="L126" s="2" t="e">
-        <f>AVERAGE(B123:K126)</f>
+        <f>AVERAGE(B126:K126)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M126" s="5" t="e">
-        <f>_xlfn.STDEV.P(B126:K126)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1920,11 +1920,11 @@
         <v>32000</v>
       </c>
       <c r="L127" s="2" t="e">
-        <f>AVERAGE(B127:K127)</f>
+        <f t="shared" ref="L127:L138" si="13">AVERAGE(B127:K127)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M127" s="5" t="e">
-        <f>_xlfn.STDEV.P(B127:K127)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1933,11 +1933,11 @@
         <v>64000</v>
       </c>
       <c r="L128" s="2" t="e">
-        <f>AVERAGE(B128:K128)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M128" s="5" t="e">
-        <f>_xlfn.STDEV.P(B128:K128)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1946,11 +1946,11 @@
         <v>128000</v>
       </c>
       <c r="L129" s="2" t="e">
-        <f>AVERAGE(B129:K129)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M129" s="5" t="e">
-        <f>_xlfn.STDEV.P(B129:K129)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1959,11 +1959,11 @@
         <v>256000</v>
       </c>
       <c r="L130" s="2" t="e">
-        <f>AVERAGE(B130:K130)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M130" s="5" t="e">
-        <f>_xlfn.STDEV.P(B130:K130)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1972,11 +1972,11 @@
         <v>512000</v>
       </c>
       <c r="L131" s="2" t="e">
-        <f>AVERAGE(B131:K131)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M131" s="5" t="e">
-        <f>_xlfn.STDEV.P(B131:K131)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1985,11 +1985,11 @@
         <v>1024000</v>
       </c>
       <c r="L132" s="2" t="e">
-        <f>AVERAGE(B132:K132)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M132" s="5" t="e">
-        <f>_xlfn.STDEV.P(B132:K132)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1998,11 +1998,11 @@
         <v>2048000</v>
       </c>
       <c r="L133" s="2" t="e">
-        <f>AVERAGE(B133:K133)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M133" s="5" t="e">
-        <f>_xlfn.STDEV.P(B133:K133)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2011,11 +2011,11 @@
         <v>4096000</v>
       </c>
       <c r="L134" s="2" t="e">
-        <f>AVERAGE(B134:K134)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M134" s="5" t="e">
-        <f>_xlfn.STDEV.P(B134:K134)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2024,11 +2024,11 @@
         <v>8192000</v>
       </c>
       <c r="L135" s="2" t="e">
-        <f>AVERAGE(B135:K135)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M135" s="5" t="e">
-        <f>_xlfn.STDEV.P(B135:K135)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2037,11 +2037,11 @@
         <v>16384000</v>
       </c>
       <c r="L136" s="2" t="e">
-        <f>AVERAGE(B136:K136)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M136" s="5" t="e">
-        <f>_xlfn.STDEV.P(B136:K136)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2050,11 +2050,11 @@
         <v>32768000</v>
       </c>
       <c r="L137" s="2" t="e">
-        <f>AVERAGE(B137:K137)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M137" s="5" t="e">
-        <f>_xlfn.STDEV.P(B137:K137)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2063,11 +2063,11 @@
         <v>65536000</v>
       </c>
       <c r="L138" s="2" t="e">
-        <f>AVERAGE(B138:K138)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M138" s="5" t="e">
-        <f>_xlfn.STDEV.P(B138:K138)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2076,11 +2076,11 @@
         <v>1000</v>
       </c>
       <c r="L141" s="2" t="e">
-        <f>AVERAGE(B141:K141)</f>
+        <f t="shared" ref="L141:L157" si="14">AVERAGE(B141:K141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M141" s="5" t="e">
-        <f>_xlfn.STDEV.P(B141:K141)</f>
+        <f t="shared" ref="M141:M157" si="15">_xlfn.STDEV.P(B141:K141)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2089,11 +2089,11 @@
         <v>2000</v>
       </c>
       <c r="L142" s="2" t="e">
-        <f>AVERAGE(B142:K142)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M142" s="5" t="e">
-        <f>_xlfn.STDEV.P(B142:K142)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2102,11 +2102,11 @@
         <v>4000</v>
       </c>
       <c r="L143" s="2" t="e">
-        <f>AVERAGE(B143:K143)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M143" s="5" t="e">
-        <f>_xlfn.STDEV.P(B143:K143)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2115,11 +2115,11 @@
         <v>8000</v>
       </c>
       <c r="L144" s="2" t="e">
-        <f>AVERAGE(B144:K144)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M144" s="5" t="e">
-        <f>_xlfn.STDEV.P(B144:K144)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2128,11 +2128,11 @@
         <v>16000</v>
       </c>
       <c r="L145" s="2" t="e">
-        <f>AVERAGE(B145:K145)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M145" s="5" t="e">
-        <f>_xlfn.STDEV.P(B145:K145)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2141,11 +2141,11 @@
         <v>32000</v>
       </c>
       <c r="L146" s="2" t="e">
-        <f>AVERAGE(B146:K146)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M146" s="5" t="e">
-        <f>_xlfn.STDEV.P(B146:K146)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2154,11 +2154,11 @@
         <v>64000</v>
       </c>
       <c r="L147" s="2" t="e">
-        <f>AVERAGE(B147:K147)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M147" s="5" t="e">
-        <f>_xlfn.STDEV.P(B147:K147)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2167,11 +2167,11 @@
         <v>128000</v>
       </c>
       <c r="L148" s="2" t="e">
-        <f>AVERAGE(B148:K148)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M148" s="5" t="e">
-        <f>_xlfn.STDEV.P(B148:K148)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2180,11 +2180,11 @@
         <v>256000</v>
       </c>
       <c r="L149" s="2" t="e">
-        <f>AVERAGE(B149:K149)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M149" s="5" t="e">
-        <f>_xlfn.STDEV.P(B149:K149)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2193,11 +2193,11 @@
         <v>512000</v>
       </c>
       <c r="L150" s="2" t="e">
-        <f>AVERAGE(B150:K150)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M150" s="5" t="e">
-        <f>_xlfn.STDEV.P(B150:K150)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2206,11 +2206,11 @@
         <v>1024000</v>
       </c>
       <c r="L151" s="2" t="e">
-        <f>AVERAGE(B151:K151)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M151" s="5" t="e">
-        <f>_xlfn.STDEV.P(B151:K151)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2219,11 +2219,11 @@
         <v>2048000</v>
       </c>
       <c r="L152" s="2" t="e">
-        <f>AVERAGE(B152:K152)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M152" s="5" t="e">
-        <f>_xlfn.STDEV.P(B152:K152)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2232,11 +2232,11 @@
         <v>4096000</v>
       </c>
       <c r="L153" s="2" t="e">
-        <f>AVERAGE(B153:K153)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M153" s="5" t="e">
-        <f>_xlfn.STDEV.P(B153:K153)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2245,11 +2245,11 @@
         <v>8192000</v>
       </c>
       <c r="L154" s="2" t="e">
-        <f>AVERAGE(B154:K154)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M154" s="5" t="e">
-        <f>_xlfn.STDEV.P(B154:K154)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2258,11 +2258,11 @@
         <v>16384000</v>
       </c>
       <c r="L155" s="2" t="e">
-        <f>AVERAGE(B155:K155)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M155" s="5" t="e">
-        <f>_xlfn.STDEV.P(B155:K155)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2271,11 +2271,11 @@
         <v>32768000</v>
       </c>
       <c r="L156" s="2" t="e">
-        <f>AVERAGE(B156:K156)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M156" s="5" t="e">
-        <f>_xlfn.STDEV.P(B156:K156)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2284,11 +2284,11 @@
         <v>65536000</v>
       </c>
       <c r="L157" s="2" t="e">
-        <f>AVERAGE(B157:K157)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M157" s="5" t="e">
-        <f>_xlfn.STDEV.P(B157:K157)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2297,11 +2297,11 @@
         <v>1000</v>
       </c>
       <c r="L160" s="2" t="e">
-        <f>AVERAGE(B160:K160)</f>
+        <f t="shared" ref="L160:L176" si="16">AVERAGE(B160:K160)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M160" s="5" t="e">
-        <f>_xlfn.STDEV.P(B160:K160)</f>
+        <f t="shared" ref="M160:M176" si="17">_xlfn.STDEV.P(B160:K160)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2310,11 +2310,11 @@
         <v>2000</v>
       </c>
       <c r="L161" s="2" t="e">
-        <f>AVERAGE(B161:K161)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M161" s="5" t="e">
-        <f>_xlfn.STDEV.P(B161:K161)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2323,11 +2323,11 @@
         <v>4000</v>
       </c>
       <c r="L162" s="2" t="e">
-        <f>AVERAGE(B162:K162)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M162" s="5" t="e">
-        <f>_xlfn.STDEV.P(B162:K162)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2336,11 +2336,11 @@
         <v>8000</v>
       </c>
       <c r="L163" s="2" t="e">
-        <f>AVERAGE(B163:K163)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M163" s="5" t="e">
-        <f>_xlfn.STDEV.P(B163:K163)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2349,11 +2349,11 @@
         <v>16000</v>
       </c>
       <c r="L164" s="2" t="e">
-        <f>AVERAGE(B164:K164)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M164" s="5" t="e">
-        <f>_xlfn.STDEV.P(B164:K164)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2362,11 +2362,11 @@
         <v>32000</v>
       </c>
       <c r="L165" s="2" t="e">
-        <f>AVERAGE(B165:K165)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M165" s="5" t="e">
-        <f>_xlfn.STDEV.P(B165:K165)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2375,11 +2375,11 @@
         <v>64000</v>
       </c>
       <c r="L166" s="2" t="e">
-        <f>AVERAGE(B166:K166)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M166" s="5" t="e">
-        <f>_xlfn.STDEV.P(B166:K166)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2388,11 +2388,11 @@
         <v>128000</v>
       </c>
       <c r="L167" s="2" t="e">
-        <f>AVERAGE(B167:K167)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M167" s="5" t="e">
-        <f>_xlfn.STDEV.P(B167:K167)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2401,11 +2401,11 @@
         <v>256000</v>
       </c>
       <c r="L168" s="2" t="e">
-        <f>AVERAGE(B168:K168)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M168" s="5" t="e">
-        <f>_xlfn.STDEV.P(B168:K168)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2414,11 +2414,11 @@
         <v>512000</v>
       </c>
       <c r="L169" s="2" t="e">
-        <f>AVERAGE(B169:K169)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M169" s="5" t="e">
-        <f>_xlfn.STDEV.P(B169:K169)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2427,11 +2427,11 @@
         <v>1024000</v>
       </c>
       <c r="L170" s="2" t="e">
-        <f>AVERAGE(B170:K170)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M170" s="5" t="e">
-        <f>_xlfn.STDEV.P(B170:K170)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2440,11 +2440,11 @@
         <v>2048000</v>
       </c>
       <c r="L171" s="2" t="e">
-        <f>AVERAGE(B171:K171)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M171" s="5" t="e">
-        <f>_xlfn.STDEV.P(B171:K171)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2453,11 +2453,11 @@
         <v>4096000</v>
       </c>
       <c r="L172" s="2" t="e">
-        <f>AVERAGE(B172:K172)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M172" s="5" t="e">
-        <f>_xlfn.STDEV.P(B172:K172)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2466,11 +2466,11 @@
         <v>8192000</v>
       </c>
       <c r="L173" s="2" t="e">
-        <f>AVERAGE(B173:K173)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M173" s="5" t="e">
-        <f>_xlfn.STDEV.P(B173:K173)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2479,11 +2479,11 @@
         <v>16384000</v>
       </c>
       <c r="L174" s="2" t="e">
-        <f>AVERAGE(B174:K174)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M174" s="5" t="e">
-        <f>_xlfn.STDEV.P(B174:K174)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2492,11 +2492,11 @@
         <v>32768000</v>
       </c>
       <c r="L175" s="2" t="e">
-        <f>AVERAGE(B175:K175)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M175" s="5" t="e">
-        <f>_xlfn.STDEV.P(B175:K175)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2505,11 +2505,11 @@
         <v>65536000</v>
       </c>
       <c r="L176" s="2" t="e">
-        <f>AVERAGE(B176:K176)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M176" s="5" t="e">
-        <f>_xlfn.STDEV.P(B176:K176)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2518,11 +2518,11 @@
         <v>1000</v>
       </c>
       <c r="L179" s="2" t="e">
-        <f>AVERAGE(B179:K179)</f>
+        <f t="shared" ref="L179:L191" si="18">AVERAGE(B179:K179)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M179" s="5" t="e">
-        <f>_xlfn.STDEV.P(B179:K179)</f>
+        <f t="shared" ref="M179:M195" si="19">_xlfn.STDEV.P(B179:K179)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2531,11 +2531,11 @@
         <v>2000</v>
       </c>
       <c r="L180" s="2" t="e">
-        <f>AVERAGE(B180:K180)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M180" s="5" t="e">
-        <f>_xlfn.STDEV.P(B180:K180)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2544,11 +2544,11 @@
         <v>4000</v>
       </c>
       <c r="L181" s="2" t="e">
-        <f>AVERAGE(B181:K181)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M181" s="5" t="e">
-        <f>_xlfn.STDEV.P(B181:K181)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2557,11 +2557,11 @@
         <v>8000</v>
       </c>
       <c r="L182" s="2" t="e">
-        <f>AVERAGE(B182:K182)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M182" s="5" t="e">
-        <f>_xlfn.STDEV.P(B182:K182)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2570,11 +2570,11 @@
         <v>16000</v>
       </c>
       <c r="L183" s="2" t="e">
-        <f>AVERAGE(B183:K183)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M183" s="5" t="e">
-        <f>_xlfn.STDEV.P(B183:K183)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2583,11 +2583,11 @@
         <v>32000</v>
       </c>
       <c r="L184" s="2" t="e">
-        <f>AVERAGE(B184:K184)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M184" s="5" t="e">
-        <f>_xlfn.STDEV.P(B184:K184)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2596,11 +2596,11 @@
         <v>64000</v>
       </c>
       <c r="L185" s="2" t="e">
-        <f>AVERAGE(B185:K185)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M185" s="5" t="e">
-        <f>_xlfn.STDEV.P(B185:K185)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2609,11 +2609,11 @@
         <v>128000</v>
       </c>
       <c r="L186" s="2" t="e">
-        <f>AVERAGE(B186:K186)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M186" s="5" t="e">
-        <f>_xlfn.STDEV.P(B186:K186)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2622,11 +2622,11 @@
         <v>256000</v>
       </c>
       <c r="L187" s="2" t="e">
-        <f>AVERAGE(B187:K187)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M187" s="5" t="e">
-        <f>_xlfn.STDEV.P(B187:K187)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2635,11 +2635,11 @@
         <v>512000</v>
       </c>
       <c r="L188" s="2" t="e">
-        <f>AVERAGE(B188:K188)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M188" s="5" t="e">
-        <f>_xlfn.STDEV.P(B188:K188)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2648,11 +2648,11 @@
         <v>1024000</v>
       </c>
       <c r="L189" s="2" t="e">
-        <f>AVERAGE(B189:K189)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M189" s="5" t="e">
-        <f>_xlfn.STDEV.P(B189:K189)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2661,11 +2661,11 @@
         <v>2048000</v>
       </c>
       <c r="L190" s="2" t="e">
-        <f>AVERAGE(B190:K190)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M190" s="5" t="e">
-        <f>_xlfn.STDEV.P(B190:K190)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2674,11 +2674,11 @@
         <v>4096000</v>
       </c>
       <c r="L191" s="2" t="e">
-        <f>AVERAGE(B191:K191)</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M191" s="5" t="e">
-        <f>_xlfn.STDEV.P(B191:K191)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M192" s="5" t="e">
-        <f>_xlfn.STDEV.P(B192:K192)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M193" s="5" t="e">
-        <f>_xlfn.STDEV.P(B193:K193)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M194" s="5" t="e">
-        <f>_xlfn.STDEV.P(B194:K194)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M195" s="5" t="e">
-        <f>_xlfn.STDEV.P(B195:K195)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2739,11 +2739,11 @@
         <v>1000</v>
       </c>
       <c r="L198" s="2" t="e">
-        <f>AVERAGE(B198:K198)</f>
+        <f t="shared" ref="L198:L214" si="20">AVERAGE(B198:K198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M198" s="5" t="e">
-        <f>_xlfn.STDEV.P(B198:K198)</f>
+        <f t="shared" ref="M198:M214" si="21">_xlfn.STDEV.P(B198:K198)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2752,11 +2752,11 @@
         <v>2000</v>
       </c>
       <c r="L199" s="2" t="e">
-        <f>AVERAGE(B199:K199)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M199" s="5" t="e">
-        <f>_xlfn.STDEV.P(B199:K199)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2765,11 +2765,11 @@
         <v>4000</v>
       </c>
       <c r="L200" s="2" t="e">
-        <f>AVERAGE(B200:K200)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M200" s="5" t="e">
-        <f>_xlfn.STDEV.P(B200:K200)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2778,11 +2778,11 @@
         <v>8000</v>
       </c>
       <c r="L201" s="2" t="e">
-        <f>AVERAGE(B201:K201)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M201" s="5" t="e">
-        <f>_xlfn.STDEV.P(B201:K201)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2791,11 +2791,11 @@
         <v>16000</v>
       </c>
       <c r="L202" s="2" t="e">
-        <f>AVERAGE(B202:K202)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M202" s="5" t="e">
-        <f>_xlfn.STDEV.P(B202:K202)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2804,11 +2804,11 @@
         <v>32000</v>
       </c>
       <c r="L203" s="2" t="e">
-        <f>AVERAGE(B203:K203)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M203" s="5" t="e">
-        <f>_xlfn.STDEV.P(B203:K203)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2817,11 +2817,11 @@
         <v>64000</v>
       </c>
       <c r="L204" s="2" t="e">
-        <f>AVERAGE(B204:K204)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M204" s="5" t="e">
-        <f>_xlfn.STDEV.P(B204:K204)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2830,11 +2830,11 @@
         <v>128000</v>
       </c>
       <c r="L205" s="2" t="e">
-        <f>AVERAGE(B205:K205)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M205" s="5" t="e">
-        <f>_xlfn.STDEV.P(B205:K205)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2843,11 +2843,11 @@
         <v>256000</v>
       </c>
       <c r="L206" s="2" t="e">
-        <f>AVERAGE(B206:K206)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M206" s="5" t="e">
-        <f>_xlfn.STDEV.P(B206:K206)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2856,11 +2856,11 @@
         <v>512000</v>
       </c>
       <c r="L207" s="2" t="e">
-        <f>AVERAGE(B207:K207)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M207" s="5" t="e">
-        <f>_xlfn.STDEV.P(B207:K207)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2869,11 +2869,11 @@
         <v>1024000</v>
       </c>
       <c r="L208" s="2" t="e">
-        <f>AVERAGE(B208:K208)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M208" s="5" t="e">
-        <f>_xlfn.STDEV.P(B208:K208)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2882,11 +2882,11 @@
         <v>2048000</v>
       </c>
       <c r="L209" s="2" t="e">
-        <f>AVERAGE(B209:K209)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M209" s="5" t="e">
-        <f>_xlfn.STDEV.P(B209:K209)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2895,11 +2895,11 @@
         <v>4096000</v>
       </c>
       <c r="L210" s="2" t="e">
-        <f>AVERAGE(B210:K210)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M210" s="5" t="e">
-        <f>_xlfn.STDEV.P(B210:K210)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2908,11 +2908,11 @@
         <v>8192000</v>
       </c>
       <c r="L211" s="2" t="e">
-        <f>AVERAGE(B211:K211)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M211" s="5" t="e">
-        <f>_xlfn.STDEV.P(B211:K211)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2921,11 +2921,11 @@
         <v>16384000</v>
       </c>
       <c r="L212" s="2" t="e">
-        <f>AVERAGE(B212:K212)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M212" s="5" t="e">
-        <f>_xlfn.STDEV.P(B212:K212)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2934,11 +2934,11 @@
         <v>32768000</v>
       </c>
       <c r="L213" s="2" t="e">
-        <f>AVERAGE(B213:K213)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M213" s="5" t="e">
-        <f>_xlfn.STDEV.P(B213:K213)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2947,11 +2947,11 @@
         <v>65536000</v>
       </c>
       <c r="L214" s="2" t="e">
-        <f>AVERAGE(B214:K214)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M214" s="5" t="e">
-        <f>_xlfn.STDEV.P(B214:K214)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2960,11 +2960,11 @@
         <v>1000</v>
       </c>
       <c r="L217" s="2" t="e">
-        <f>AVERAGE(B217:K217)</f>
+        <f t="shared" ref="L217:L233" si="22">AVERAGE(B217:K217)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M217" s="5" t="e">
-        <f>_xlfn.STDEV.P(B217:K217)</f>
+        <f t="shared" ref="M217:M233" si="23">_xlfn.STDEV.P(B217:K217)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2973,11 +2973,11 @@
         <v>2000</v>
       </c>
       <c r="L218" s="2" t="e">
-        <f>AVERAGE(B218:K218)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M218" s="5" t="e">
-        <f>_xlfn.STDEV.P(B218:K218)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2986,11 +2986,11 @@
         <v>4000</v>
       </c>
       <c r="L219" s="2" t="e">
-        <f>AVERAGE(B219:K219)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M219" s="5" t="e">
-        <f>_xlfn.STDEV.P(B219:K219)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2999,11 +2999,11 @@
         <v>8000</v>
       </c>
       <c r="L220" s="2" t="e">
-        <f>AVERAGE(B220:K220)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M220" s="5" t="e">
-        <f>_xlfn.STDEV.P(B220:K220)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3012,11 +3012,11 @@
         <v>16000</v>
       </c>
       <c r="L221" s="2" t="e">
-        <f>AVERAGE(B221:K221)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M221" s="5" t="e">
-        <f>_xlfn.STDEV.P(B221:K221)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3025,11 +3025,11 @@
         <v>32000</v>
       </c>
       <c r="L222" s="2" t="e">
-        <f>AVERAGE(B222:K222)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M222" s="5" t="e">
-        <f>_xlfn.STDEV.P(B222:K222)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3038,11 +3038,11 @@
         <v>64000</v>
       </c>
       <c r="L223" s="2" t="e">
-        <f>AVERAGE(B223:K223)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M223" s="5" t="e">
-        <f>_xlfn.STDEV.P(B223:K223)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3051,11 +3051,11 @@
         <v>128000</v>
       </c>
       <c r="L224" s="2" t="e">
-        <f>AVERAGE(B224:K224)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M224" s="5" t="e">
-        <f>_xlfn.STDEV.P(B224:K224)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3064,11 +3064,11 @@
         <v>256000</v>
       </c>
       <c r="L225" s="2" t="e">
-        <f>AVERAGE(B225:K225)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M225" s="5" t="e">
-        <f>_xlfn.STDEV.P(B225:K225)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3077,11 +3077,11 @@
         <v>512000</v>
       </c>
       <c r="L226" s="2" t="e">
-        <f>AVERAGE(B226:K226)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M226" s="5" t="e">
-        <f>_xlfn.STDEV.P(B226:K226)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3090,11 +3090,11 @@
         <v>1024000</v>
       </c>
       <c r="L227" s="2" t="e">
-        <f>AVERAGE(B227:K227)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M227" s="5" t="e">
-        <f>_xlfn.STDEV.P(B227:K227)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3103,11 +3103,11 @@
         <v>2048000</v>
       </c>
       <c r="L228" s="2" t="e">
-        <f>AVERAGE(B228:K228)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M228" s="5" t="e">
-        <f>_xlfn.STDEV.P(B228:K228)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3116,11 +3116,11 @@
         <v>4096000</v>
       </c>
       <c r="L229" s="2" t="e">
-        <f>AVERAGE(B229:K229)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M229" s="5" t="e">
-        <f>_xlfn.STDEV.P(B229:K229)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3129,11 +3129,11 @@
         <v>8192000</v>
       </c>
       <c r="L230" s="2" t="e">
-        <f>AVERAGE(B230:K230)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M230" s="5" t="e">
-        <f>_xlfn.STDEV.P(B230:K230)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3142,11 +3142,11 @@
         <v>16384000</v>
       </c>
       <c r="L231" s="2" t="e">
-        <f>AVERAGE(B231:K231)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M231" s="5" t="e">
-        <f>_xlfn.STDEV.P(B231:K231)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3155,11 +3155,11 @@
         <v>32768000</v>
       </c>
       <c r="L232" s="2" t="e">
-        <f>AVERAGE(B232:K232)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M232" s="5" t="e">
-        <f>_xlfn.STDEV.P(B232:K232)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3168,11 +3168,11 @@
         <v>65536000</v>
       </c>
       <c r="L233" s="2" t="e">
-        <f>AVERAGE(B233:K233)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M233" s="5" t="e">
-        <f>_xlfn.STDEV.P(B233:K233)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3181,11 +3181,11 @@
         <v>1000</v>
       </c>
       <c r="L236" s="2" t="e">
-        <f>AVERAGE(B236:K236)</f>
+        <f t="shared" ref="L236:L252" si="24">AVERAGE(B236:K236)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M236" s="5" t="e">
-        <f>_xlfn.STDEV.P(B236:K236)</f>
+        <f t="shared" ref="M236:M252" si="25">_xlfn.STDEV.P(B236:K236)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3194,11 +3194,11 @@
         <v>2000</v>
       </c>
       <c r="L237" s="2" t="e">
-        <f>AVERAGE(B237:K237)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M237" s="5" t="e">
-        <f>_xlfn.STDEV.P(B237:K237)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3207,11 +3207,11 @@
         <v>4000</v>
       </c>
       <c r="L238" s="2" t="e">
-        <f>AVERAGE(B238:K238)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M238" s="5" t="e">
-        <f>_xlfn.STDEV.P(B238:K238)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3220,11 +3220,11 @@
         <v>8000</v>
       </c>
       <c r="L239" s="2" t="e">
-        <f>AVERAGE(B239:K239)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M239" s="5" t="e">
-        <f>_xlfn.STDEV.P(B239:K239)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3233,11 +3233,11 @@
         <v>16000</v>
       </c>
       <c r="L240" s="2" t="e">
-        <f>AVERAGE(B240:K240)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M240" s="5" t="e">
-        <f>_xlfn.STDEV.P(B240:K240)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3246,11 +3246,11 @@
         <v>32000</v>
       </c>
       <c r="L241" s="2" t="e">
-        <f>AVERAGE(B241:K241)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M241" s="5" t="e">
-        <f>_xlfn.STDEV.P(B241:K241)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3259,11 +3259,11 @@
         <v>64000</v>
       </c>
       <c r="L242" s="2" t="e">
-        <f>AVERAGE(B242:K242)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M242" s="5" t="e">
-        <f>_xlfn.STDEV.P(B242:K242)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3272,11 +3272,11 @@
         <v>128000</v>
       </c>
       <c r="L243" s="2" t="e">
-        <f>AVERAGE(B243:K243)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M243" s="5" t="e">
-        <f>_xlfn.STDEV.P(B243:K243)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3285,11 +3285,11 @@
         <v>256000</v>
       </c>
       <c r="L244" s="2" t="e">
-        <f>AVERAGE(B244:K244)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M244" s="5" t="e">
-        <f>_xlfn.STDEV.P(B244:K244)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3298,11 +3298,11 @@
         <v>512000</v>
       </c>
       <c r="L245" s="2" t="e">
-        <f>AVERAGE(B245:K245)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M245" s="5" t="e">
-        <f>_xlfn.STDEV.P(B245:K245)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3311,11 +3311,11 @@
         <v>1024000</v>
       </c>
       <c r="L246" s="2" t="e">
-        <f>AVERAGE(B246:K246)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M246" s="5" t="e">
-        <f>_xlfn.STDEV.P(B246:K246)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3324,11 +3324,11 @@
         <v>2048000</v>
       </c>
       <c r="L247" s="2" t="e">
-        <f>AVERAGE(B247:K247)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M247" s="5" t="e">
-        <f>_xlfn.STDEV.P(B247:K247)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3337,11 +3337,11 @@
         <v>4096000</v>
       </c>
       <c r="L248" s="2" t="e">
-        <f>AVERAGE(B248:K248)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M248" s="5" t="e">
-        <f>_xlfn.STDEV.P(B248:K248)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3350,11 +3350,11 @@
         <v>8192000</v>
       </c>
       <c r="L249" s="2" t="e">
-        <f>AVERAGE(B249:K249)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M249" s="5" t="e">
-        <f>_xlfn.STDEV.P(B249:K249)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3363,11 +3363,11 @@
         <v>16384000</v>
       </c>
       <c r="L250" s="2" t="e">
-        <f>AVERAGE(B250:K250)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M250" s="5" t="e">
-        <f>_xlfn.STDEV.P(B250:K250)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3376,11 +3376,11 @@
         <v>32768000</v>
       </c>
       <c r="L251" s="2" t="e">
-        <f>AVERAGE(B251:K251)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M251" s="5" t="e">
-        <f>_xlfn.STDEV.P(B251:K251)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3389,11 +3389,11 @@
         <v>65536000</v>
       </c>
       <c r="L252" s="2" t="e">
-        <f>AVERAGE(B252:K252)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M252" s="5" t="e">
-        <f>_xlfn.STDEV.P(B252:K252)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3402,11 +3402,11 @@
         <v>1000</v>
       </c>
       <c r="L255" s="2" t="e">
-        <f>AVERAGE(B255:K255)</f>
+        <f t="shared" ref="L255:L271" si="26">AVERAGE(B255:K255)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M255" s="5" t="e">
-        <f>_xlfn.STDEV.P(B255:K255)</f>
+        <f t="shared" ref="M255:M271" si="27">_xlfn.STDEV.P(B255:K255)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3415,11 +3415,11 @@
         <v>2000</v>
       </c>
       <c r="L256" s="2" t="e">
-        <f>AVERAGE(B256:K256)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M256" s="5" t="e">
-        <f>_xlfn.STDEV.P(B256:K256)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3428,11 +3428,11 @@
         <v>4000</v>
       </c>
       <c r="L257" s="2" t="e">
-        <f>AVERAGE(B257:K257)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M257" s="5" t="e">
-        <f>_xlfn.STDEV.P(B257:K257)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>8000</v>
       </c>
       <c r="L258" s="2" t="e">
-        <f>AVERAGE(B258:K258)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M258" s="5" t="e">
-        <f>_xlfn.STDEV.P(B258:K258)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3454,11 +3454,11 @@
         <v>16000</v>
       </c>
       <c r="L259" s="2" t="e">
-        <f>AVERAGE(B259:K259)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M259" s="5" t="e">
-        <f>_xlfn.STDEV.P(B259:K259)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3467,11 +3467,11 @@
         <v>32000</v>
       </c>
       <c r="L260" s="2" t="e">
-        <f>AVERAGE(B260:K260)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M260" s="5" t="e">
-        <f>_xlfn.STDEV.P(B260:K260)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3480,11 +3480,11 @@
         <v>64000</v>
       </c>
       <c r="L261" s="2" t="e">
-        <f>AVERAGE(B261:K261)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M261" s="5" t="e">
-        <f>_xlfn.STDEV.P(B261:K261)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3493,11 +3493,11 @@
         <v>128000</v>
       </c>
       <c r="L262" s="2" t="e">
-        <f>AVERAGE(B262:K262)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M262" s="5" t="e">
-        <f>_xlfn.STDEV.P(B262:K262)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3506,11 +3506,11 @@
         <v>256000</v>
       </c>
       <c r="L263" s="2" t="e">
-        <f>AVERAGE(B263:K263)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M263" s="5" t="e">
-        <f>_xlfn.STDEV.P(B263:K263)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3519,11 +3519,11 @@
         <v>512000</v>
       </c>
       <c r="L264" s="2" t="e">
-        <f>AVERAGE(B264:K264)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M264" s="5" t="e">
-        <f>_xlfn.STDEV.P(B264:K264)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3532,11 +3532,11 @@
         <v>1024000</v>
       </c>
       <c r="L265" s="2" t="e">
-        <f>AVERAGE(B265:K265)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M265" s="5" t="e">
-        <f>_xlfn.STDEV.P(B265:K265)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3545,11 +3545,11 @@
         <v>2048000</v>
       </c>
       <c r="L266" s="2" t="e">
-        <f>AVERAGE(B266:K266)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M266" s="5" t="e">
-        <f>_xlfn.STDEV.P(B266:K266)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3558,11 +3558,11 @@
         <v>4096000</v>
       </c>
       <c r="L267" s="2" t="e">
-        <f>AVERAGE(B267:K267)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M267" s="5" t="e">
-        <f>_xlfn.STDEV.P(B267:K267)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3571,11 +3571,11 @@
         <v>8192000</v>
       </c>
       <c r="L268" s="2" t="e">
-        <f>AVERAGE(B268:K268)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M268" s="5" t="e">
-        <f>_xlfn.STDEV.P(B268:K268)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3584,11 +3584,11 @@
         <v>16384000</v>
       </c>
       <c r="L269" s="2" t="e">
-        <f>AVERAGE(B269:K269)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M269" s="5" t="e">
-        <f>_xlfn.STDEV.P(B269:K269)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3597,11 +3597,11 @@
         <v>32768000</v>
       </c>
       <c r="L270" s="2" t="e">
-        <f>AVERAGE(B270:K270)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M270" s="5" t="e">
-        <f>_xlfn.STDEV.P(B270:K270)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3610,11 +3610,11 @@
         <v>65536000</v>
       </c>
       <c r="L271" s="2" t="e">
-        <f>AVERAGE(B271:K271)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M271" s="5" t="e">
-        <f>_xlfn.STDEV.P(B271:K271)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3623,11 +3623,11 @@
         <v>1000</v>
       </c>
       <c r="L274" s="2" t="e">
-        <f>AVERAGE(B274:K274)</f>
+        <f t="shared" ref="L274:L290" si="28">AVERAGE(B274:K274)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M274" s="5" t="e">
-        <f>_xlfn.STDEV.P(B274:K274)</f>
+        <f t="shared" ref="M274:M290" si="29">_xlfn.STDEV.P(B274:K274)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3636,11 +3636,11 @@
         <v>2000</v>
       </c>
       <c r="L275" s="2" t="e">
-        <f>AVERAGE(B275:K275)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M275" s="5" t="e">
-        <f>_xlfn.STDEV.P(B275:K275)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3649,11 +3649,11 @@
         <v>4000</v>
       </c>
       <c r="L276" s="2" t="e">
-        <f>AVERAGE(B276:K276)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M276" s="5" t="e">
-        <f>_xlfn.STDEV.P(B276:K276)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3662,11 +3662,11 @@
         <v>8000</v>
       </c>
       <c r="L277" s="2" t="e">
-        <f>AVERAGE(B277:K277)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M277" s="5" t="e">
-        <f>_xlfn.STDEV.P(B277:K277)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3675,11 +3675,11 @@
         <v>16000</v>
       </c>
       <c r="L278" s="2" t="e">
-        <f>AVERAGE(B278:K278)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M278" s="5" t="e">
-        <f>_xlfn.STDEV.P(B278:K278)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3688,11 +3688,11 @@
         <v>32000</v>
       </c>
       <c r="L279" s="2" t="e">
-        <f>AVERAGE(B279:K279)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M279" s="5" t="e">
-        <f>_xlfn.STDEV.P(B279:K279)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3701,11 +3701,11 @@
         <v>64000</v>
       </c>
       <c r="L280" s="2" t="e">
-        <f>AVERAGE(B280:K280)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M280" s="5" t="e">
-        <f>_xlfn.STDEV.P(B280:K280)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3714,11 +3714,11 @@
         <v>128000</v>
       </c>
       <c r="L281" s="2" t="e">
-        <f>AVERAGE(B281:K281)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M281" s="5" t="e">
-        <f>_xlfn.STDEV.P(B281:K281)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3727,11 +3727,11 @@
         <v>256000</v>
       </c>
       <c r="L282" s="2" t="e">
-        <f>AVERAGE(B282:K282)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M282" s="5" t="e">
-        <f>_xlfn.STDEV.P(B282:K282)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3740,11 +3740,11 @@
         <v>512000</v>
       </c>
       <c r="L283" s="2" t="e">
-        <f>AVERAGE(B283:K283)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M283" s="5" t="e">
-        <f>_xlfn.STDEV.P(B283:K283)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3753,11 +3753,11 @@
         <v>1024000</v>
       </c>
       <c r="L284" s="2" t="e">
-        <f>AVERAGE(B284:K284)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M284" s="5" t="e">
-        <f>_xlfn.STDEV.P(B284:K284)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3766,11 +3766,11 @@
         <v>2048000</v>
       </c>
       <c r="L285" s="2" t="e">
-        <f>AVERAGE(B285:K285)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M285" s="5" t="e">
-        <f>_xlfn.STDEV.P(B285:K285)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3779,11 +3779,11 @@
         <v>4096000</v>
       </c>
       <c r="L286" s="2" t="e">
-        <f>AVERAGE(B286:K286)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M286" s="5" t="e">
-        <f>_xlfn.STDEV.P(B286:K286)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3792,11 +3792,11 @@
         <v>8192000</v>
       </c>
       <c r="L287" s="2" t="e">
-        <f>AVERAGE(B287:K287)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M287" s="5" t="e">
-        <f>_xlfn.STDEV.P(B287:K287)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3805,11 +3805,11 @@
         <v>16384000</v>
       </c>
       <c r="L288" s="2" t="e">
-        <f>AVERAGE(B288:K288)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M288" s="5" t="e">
-        <f>_xlfn.STDEV.P(B288:K288)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3818,11 +3818,11 @@
         <v>32768000</v>
       </c>
       <c r="L289" s="2" t="e">
-        <f>AVERAGE(B289:K289)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M289" s="5" t="e">
-        <f>_xlfn.STDEV.P(B289:K289)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3831,11 +3831,11 @@
         <v>65536000</v>
       </c>
       <c r="L290" s="2" t="e">
-        <f>AVERAGE(B290:K290)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M290" s="5" t="e">
-        <f>_xlfn.STDEV.P(B290:K290)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3844,11 +3844,11 @@
         <v>1000</v>
       </c>
       <c r="L293" s="2" t="e">
-        <f>AVERAGE(B293:K293)</f>
+        <f t="shared" ref="L293:L309" si="30">AVERAGE(B293:K293)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M293" s="5" t="e">
-        <f>_xlfn.STDEV.P(B293:K293)</f>
+        <f t="shared" ref="M293:M309" si="31">_xlfn.STDEV.P(B293:K293)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3857,11 +3857,11 @@
         <v>2000</v>
       </c>
       <c r="L294" s="2" t="e">
-        <f>AVERAGE(B294:K294)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M294" s="5" t="e">
-        <f>_xlfn.STDEV.P(B294:K294)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3870,11 +3870,11 @@
         <v>4000</v>
       </c>
       <c r="L295" s="2" t="e">
-        <f>AVERAGE(B295:K295)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M295" s="5" t="e">
-        <f>_xlfn.STDEV.P(B295:K295)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3883,11 +3883,11 @@
         <v>8000</v>
       </c>
       <c r="L296" s="2" t="e">
-        <f>AVERAGE(B296:K296)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M296" s="5" t="e">
-        <f>_xlfn.STDEV.P(B296:K296)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3896,11 +3896,11 @@
         <v>16000</v>
       </c>
       <c r="L297" s="2" t="e">
-        <f>AVERAGE(B297:K297)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M297" s="5" t="e">
-        <f>_xlfn.STDEV.P(B297:K297)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3909,11 +3909,11 @@
         <v>32000</v>
       </c>
       <c r="L298" s="2" t="e">
-        <f>AVERAGE(B298:K298)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M298" s="5" t="e">
-        <f>_xlfn.STDEV.P(B298:K298)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3922,11 +3922,11 @@
         <v>64000</v>
       </c>
       <c r="L299" s="2" t="e">
-        <f>AVERAGE(B299:K299)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M299" s="5" t="e">
-        <f>_xlfn.STDEV.P(B299:K299)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3935,11 +3935,11 @@
         <v>128000</v>
       </c>
       <c r="L300" s="2" t="e">
-        <f>AVERAGE(B300:K300)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M300" s="5" t="e">
-        <f>_xlfn.STDEV.P(B300:K300)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3948,11 +3948,11 @@
         <v>256000</v>
       </c>
       <c r="L301" s="2" t="e">
-        <f>AVERAGE(B301:K301)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M301" s="5" t="e">
-        <f>_xlfn.STDEV.P(B301:K301)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3961,11 +3961,11 @@
         <v>512000</v>
       </c>
       <c r="L302" s="2" t="e">
-        <f>AVERAGE(B302:K302)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M302" s="5" t="e">
-        <f>_xlfn.STDEV.P(B302:K302)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3974,11 +3974,11 @@
         <v>1024000</v>
       </c>
       <c r="L303" s="2" t="e">
-        <f>AVERAGE(B303:K303)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M303" s="5" t="e">
-        <f>_xlfn.STDEV.P(B303:K303)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3987,11 +3987,11 @@
         <v>2048000</v>
       </c>
       <c r="L304" s="2" t="e">
-        <f>AVERAGE(B304:K304)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M304" s="5" t="e">
-        <f>_xlfn.STDEV.P(B304:K304)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4000,11 +4000,11 @@
         <v>4096000</v>
       </c>
       <c r="L305" s="2" t="e">
-        <f>AVERAGE(B305:K305)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M305" s="5" t="e">
-        <f>_xlfn.STDEV.P(B305:K305)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4013,11 +4013,11 @@
         <v>8192000</v>
       </c>
       <c r="L306" s="2" t="e">
-        <f>AVERAGE(B306:K306)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M306" s="5" t="e">
-        <f>_xlfn.STDEV.P(B306:K306)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4026,11 +4026,11 @@
         <v>16384000</v>
       </c>
       <c r="L307" s="2" t="e">
-        <f>AVERAGE(B307:K307)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M307" s="5" t="e">
-        <f>_xlfn.STDEV.P(B307:K307)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4039,11 +4039,11 @@
         <v>32768000</v>
       </c>
       <c r="L308" s="2" t="e">
-        <f>AVERAGE(B308:K308)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M308" s="5" t="e">
-        <f>_xlfn.STDEV.P(B308:K308)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4052,11 +4052,11 @@
         <v>65536000</v>
       </c>
       <c r="L309" s="2" t="e">
-        <f>AVERAGE(B309:K309)</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M309" s="5" t="e">
-        <f>_xlfn.STDEV.P(B309:K309)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4065,11 +4065,11 @@
         <v>1000</v>
       </c>
       <c r="L312" s="2" t="e">
-        <f>AVERAGE(B312:K312)</f>
+        <f t="shared" ref="L312:L328" si="32">AVERAGE(B312:K312)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M312" s="5" t="e">
-        <f>_xlfn.STDEV.P(B312:K312)</f>
+        <f t="shared" ref="M312:M328" si="33">_xlfn.STDEV.P(B312:K312)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4078,11 +4078,11 @@
         <v>2000</v>
       </c>
       <c r="L313" s="2" t="e">
-        <f>AVERAGE(B313:K313)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M313" s="5" t="e">
-        <f>_xlfn.STDEV.P(B313:K313)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4091,11 +4091,11 @@
         <v>4000</v>
       </c>
       <c r="L314" s="2" t="e">
-        <f>AVERAGE(B314:K314)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M314" s="5" t="e">
-        <f>_xlfn.STDEV.P(B314:K314)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4104,11 +4104,11 @@
         <v>8000</v>
       </c>
       <c r="L315" s="2" t="e">
-        <f>AVERAGE(B315:K315)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M315" s="5" t="e">
-        <f>_xlfn.STDEV.P(B315:K315)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4117,11 +4117,11 @@
         <v>16000</v>
       </c>
       <c r="L316" s="2" t="e">
-        <f>AVERAGE(B316:K316)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M316" s="5" t="e">
-        <f>_xlfn.STDEV.P(B316:K316)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4130,11 +4130,11 @@
         <v>32000</v>
       </c>
       <c r="L317" s="2" t="e">
-        <f>AVERAGE(B317:K317)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M317" s="5" t="e">
-        <f>_xlfn.STDEV.P(B317:K317)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4143,11 +4143,11 @@
         <v>64000</v>
       </c>
       <c r="L318" s="2" t="e">
-        <f>AVERAGE(B318:K318)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M318" s="5" t="e">
-        <f>_xlfn.STDEV.P(B318:K318)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4156,11 +4156,11 @@
         <v>128000</v>
       </c>
       <c r="L319" s="2" t="e">
-        <f>AVERAGE(B319:K319)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M319" s="5" t="e">
-        <f>_xlfn.STDEV.P(B319:K319)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4169,11 +4169,11 @@
         <v>256000</v>
       </c>
       <c r="L320" s="2" t="e">
-        <f>AVERAGE(B320:K320)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M320" s="5" t="e">
-        <f>_xlfn.STDEV.P(B320:K320)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4182,11 +4182,11 @@
         <v>512000</v>
       </c>
       <c r="L321" s="2" t="e">
-        <f>AVERAGE(B321:K321)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M321" s="5" t="e">
-        <f>_xlfn.STDEV.P(B321:K321)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4195,11 +4195,11 @@
         <v>1024000</v>
       </c>
       <c r="L322" s="2" t="e">
-        <f>AVERAGE(B322:K322)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M322" s="5" t="e">
-        <f>_xlfn.STDEV.P(B322:K322)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4208,11 +4208,11 @@
         <v>2048000</v>
       </c>
       <c r="L323" s="2" t="e">
-        <f>AVERAGE(B323:K323)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M323" s="5" t="e">
-        <f>_xlfn.STDEV.P(B323:K323)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4221,11 +4221,11 @@
         <v>4096000</v>
       </c>
       <c r="L324" s="2" t="e">
-        <f>AVERAGE(B324:K324)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M324" s="5" t="e">
-        <f>_xlfn.STDEV.P(B324:K324)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4234,11 +4234,11 @@
         <v>8192000</v>
       </c>
       <c r="L325" s="2" t="e">
-        <f>AVERAGE(B325:K325)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M325" s="5" t="e">
-        <f>_xlfn.STDEV.P(B325:K325)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4247,11 +4247,11 @@
         <v>16384000</v>
       </c>
       <c r="L326" s="2" t="e">
-        <f>AVERAGE(B326:K326)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M326" s="5" t="e">
-        <f>_xlfn.STDEV.P(B326:K326)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4260,11 +4260,11 @@
         <v>32768000</v>
       </c>
       <c r="L327" s="2" t="e">
-        <f>AVERAGE(B327:K327)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M327" s="5" t="e">
-        <f>_xlfn.STDEV.P(B327:K327)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4273,11 +4273,11 @@
         <v>65536000</v>
       </c>
       <c r="L328" s="2" t="e">
-        <f>AVERAGE(B328:K328)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M328" s="5" t="e">
-        <f>_xlfn.STDEV.P(B328:K328)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4286,11 +4286,11 @@
         <v>1000</v>
       </c>
       <c r="L331" s="2" t="e">
-        <f>AVERAGE(B331:K331)</f>
+        <f t="shared" ref="L331:L347" si="34">AVERAGE(B331:K331)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M331" s="5" t="e">
-        <f>_xlfn.STDEV.P(B331:K331)</f>
+        <f t="shared" ref="M331:M347" si="35">_xlfn.STDEV.P(B331:K331)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4299,11 +4299,11 @@
         <v>2000</v>
       </c>
       <c r="L332" s="2" t="e">
-        <f>AVERAGE(B332:K332)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M332" s="5" t="e">
-        <f>_xlfn.STDEV.P(B332:K332)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4312,11 +4312,11 @@
         <v>4000</v>
       </c>
       <c r="L333" s="2" t="e">
-        <f>AVERAGE(B333:K333)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M333" s="5" t="e">
-        <f>_xlfn.STDEV.P(B333:K333)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4325,11 +4325,11 @@
         <v>8000</v>
       </c>
       <c r="L334" s="2" t="e">
-        <f>AVERAGE(B334:K334)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M334" s="5" t="e">
-        <f>_xlfn.STDEV.P(B334:K334)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4338,11 +4338,11 @@
         <v>16000</v>
       </c>
       <c r="L335" s="2" t="e">
-        <f>AVERAGE(B335:K335)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M335" s="5" t="e">
-        <f>_xlfn.STDEV.P(B335:K335)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4351,11 +4351,11 @@
         <v>32000</v>
       </c>
       <c r="L336" s="2" t="e">
-        <f>AVERAGE(B336:K336)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M336" s="5" t="e">
-        <f>_xlfn.STDEV.P(B336:K336)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4364,11 +4364,11 @@
         <v>64000</v>
       </c>
       <c r="L337" s="2" t="e">
-        <f>AVERAGE(B337:K337)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M337" s="5" t="e">
-        <f>_xlfn.STDEV.P(B337:K337)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4377,11 +4377,11 @@
         <v>128000</v>
       </c>
       <c r="L338" s="2" t="e">
-        <f>AVERAGE(B338:K338)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M338" s="5" t="e">
-        <f>_xlfn.STDEV.P(B338:K338)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4390,11 +4390,11 @@
         <v>256000</v>
       </c>
       <c r="L339" s="2" t="e">
-        <f>AVERAGE(B339:K339)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M339" s="5" t="e">
-        <f>_xlfn.STDEV.P(B339:K339)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4403,11 +4403,11 @@
         <v>512000</v>
       </c>
       <c r="L340" s="2" t="e">
-        <f>AVERAGE(B340:K340)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M340" s="5" t="e">
-        <f>_xlfn.STDEV.P(B340:K340)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4416,11 +4416,11 @@
         <v>1024000</v>
       </c>
       <c r="L341" s="2" t="e">
-        <f>AVERAGE(B341:K341)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M341" s="5" t="e">
-        <f>_xlfn.STDEV.P(B341:K341)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4429,11 +4429,11 @@
         <v>2048000</v>
       </c>
       <c r="L342" s="2" t="e">
-        <f>AVERAGE(B342:K342)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M342" s="5" t="e">
-        <f>_xlfn.STDEV.P(B342:K342)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4442,11 +4442,11 @@
         <v>4096000</v>
       </c>
       <c r="L343" s="2" t="e">
-        <f>AVERAGE(B343:K343)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M343" s="5" t="e">
-        <f>_xlfn.STDEV.P(B343:K343)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4455,11 +4455,11 @@
         <v>8192000</v>
       </c>
       <c r="L344" s="2" t="e">
-        <f>AVERAGE(B344:K344)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M344" s="5" t="e">
-        <f>_xlfn.STDEV.P(B344:K344)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4468,11 +4468,11 @@
         <v>16384000</v>
       </c>
       <c r="L345" s="2" t="e">
-        <f>AVERAGE(B345:K345)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M345" s="5" t="e">
-        <f>_xlfn.STDEV.P(B345:K345)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4481,11 +4481,11 @@
         <v>32768000</v>
       </c>
       <c r="L346" s="2" t="e">
-        <f>AVERAGE(B346:K346)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M346" s="5" t="e">
-        <f>_xlfn.STDEV.P(B346:K346)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4494,11 +4494,11 @@
         <v>65536000</v>
       </c>
       <c r="L347" s="2" t="e">
-        <f>AVERAGE(B347:K347)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M347" s="5" t="e">
-        <f>_xlfn.STDEV.P(B347:K347)</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4507,11 +4507,11 @@
         <v>1000</v>
       </c>
       <c r="L350" s="2" t="e">
-        <f>AVERAGE(B350:K350)</f>
+        <f t="shared" ref="L350:L366" si="36">AVERAGE(B350:K350)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M350" s="5" t="e">
-        <f>_xlfn.STDEV.P(B350:K350)</f>
+        <f t="shared" ref="M350:M366" si="37">_xlfn.STDEV.P(B350:K350)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4520,11 +4520,11 @@
         <v>2000</v>
       </c>
       <c r="L351" s="2" t="e">
-        <f>AVERAGE(B351:K351)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M351" s="5" t="e">
-        <f>_xlfn.STDEV.P(B351:K351)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4533,11 +4533,11 @@
         <v>4000</v>
       </c>
       <c r="L352" s="2" t="e">
-        <f>AVERAGE(B352:K352)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M352" s="5" t="e">
-        <f>_xlfn.STDEV.P(B352:K352)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4546,11 +4546,11 @@
         <v>8000</v>
       </c>
       <c r="L353" s="2" t="e">
-        <f>AVERAGE(B353:K353)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M353" s="5" t="e">
-        <f>_xlfn.STDEV.P(B353:K353)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4559,11 +4559,11 @@
         <v>16000</v>
       </c>
       <c r="L354" s="2" t="e">
-        <f>AVERAGE(B354:K354)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M354" s="5" t="e">
-        <f>_xlfn.STDEV.P(B354:K354)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4572,11 +4572,11 @@
         <v>32000</v>
       </c>
       <c r="L355" s="2" t="e">
-        <f>AVERAGE(B355:K355)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M355" s="5" t="e">
-        <f>_xlfn.STDEV.P(B355:K355)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4585,11 +4585,11 @@
         <v>64000</v>
       </c>
       <c r="L356" s="2" t="e">
-        <f>AVERAGE(B356:K356)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M356" s="5" t="e">
-        <f>_xlfn.STDEV.P(B356:K356)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4598,11 +4598,11 @@
         <v>128000</v>
       </c>
       <c r="L357" s="2" t="e">
-        <f>AVERAGE(B357:K357)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M357" s="5" t="e">
-        <f>_xlfn.STDEV.P(B357:K357)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4611,11 +4611,11 @@
         <v>256000</v>
       </c>
       <c r="L358" s="2" t="e">
-        <f>AVERAGE(B358:K358)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M358" s="5" t="e">
-        <f>_xlfn.STDEV.P(B358:K358)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4624,11 +4624,11 @@
         <v>512000</v>
       </c>
       <c r="L359" s="2" t="e">
-        <f>AVERAGE(B359:K359)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M359" s="5" t="e">
-        <f>_xlfn.STDEV.P(B359:K359)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4637,11 +4637,11 @@
         <v>1024000</v>
       </c>
       <c r="L360" s="2" t="e">
-        <f>AVERAGE(B360:K360)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M360" s="5" t="e">
-        <f>_xlfn.STDEV.P(B360:K360)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4650,11 +4650,11 @@
         <v>2048000</v>
       </c>
       <c r="L361" s="2" t="e">
-        <f>AVERAGE(B361:K361)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M361" s="5" t="e">
-        <f>_xlfn.STDEV.P(B361:K361)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4663,11 +4663,11 @@
         <v>4096000</v>
       </c>
       <c r="L362" s="2" t="e">
-        <f>AVERAGE(B362:K362)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M362" s="5" t="e">
-        <f>_xlfn.STDEV.P(B362:K362)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4676,11 +4676,11 @@
         <v>8192000</v>
       </c>
       <c r="L363" s="2" t="e">
-        <f>AVERAGE(B363:K363)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M363" s="5" t="e">
-        <f>_xlfn.STDEV.P(B363:K363)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4689,11 +4689,11 @@
         <v>16384000</v>
       </c>
       <c r="L364" s="2" t="e">
-        <f>AVERAGE(B364:K364)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M364" s="5" t="e">
-        <f>_xlfn.STDEV.P(B364:K364)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4702,11 +4702,11 @@
         <v>32768000</v>
       </c>
       <c r="L365" s="2" t="e">
-        <f>AVERAGE(B365:K365)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M365" s="5" t="e">
-        <f>_xlfn.STDEV.P(B365:K365)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4715,11 +4715,11 @@
         <v>65536000</v>
       </c>
       <c r="L366" s="2" t="e">
-        <f>AVERAGE(B366:K366)</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M366" s="5" t="e">
-        <f>_xlfn.STDEV.P(B366:K366)</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4728,11 +4728,11 @@
         <v>1000</v>
       </c>
       <c r="L369" s="2" t="e">
-        <f>AVERAGE(B369:K369)</f>
+        <f t="shared" ref="L369:L385" si="38">AVERAGE(B369:K369)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M369" s="5" t="e">
-        <f>_xlfn.STDEV.P(B369:K369)</f>
+        <f t="shared" ref="M369:M385" si="39">_xlfn.STDEV.P(B369:K369)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4741,11 +4741,11 @@
         <v>2000</v>
       </c>
       <c r="L370" s="2" t="e">
-        <f>AVERAGE(B370:K370)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M370" s="5" t="e">
-        <f>_xlfn.STDEV.P(B370:K370)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4754,11 +4754,11 @@
         <v>4000</v>
       </c>
       <c r="L371" s="2" t="e">
-        <f>AVERAGE(B371:K371)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M371" s="5" t="e">
-        <f>_xlfn.STDEV.P(B371:K371)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4767,11 +4767,11 @@
         <v>8000</v>
       </c>
       <c r="L372" s="2" t="e">
-        <f>AVERAGE(B372:K372)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M372" s="5" t="e">
-        <f>_xlfn.STDEV.P(B372:K372)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4780,11 +4780,11 @@
         <v>16000</v>
       </c>
       <c r="L373" s="2" t="e">
-        <f>AVERAGE(B373:K373)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M373" s="5" t="e">
-        <f>_xlfn.STDEV.P(B373:K373)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4793,11 +4793,11 @@
         <v>32000</v>
       </c>
       <c r="L374" s="2" t="e">
-        <f>AVERAGE(B374:K374)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M374" s="5" t="e">
-        <f>_xlfn.STDEV.P(B374:K374)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4806,11 +4806,11 @@
         <v>64000</v>
       </c>
       <c r="L375" s="2" t="e">
-        <f>AVERAGE(B375:K375)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M375" s="5" t="e">
-        <f>_xlfn.STDEV.P(B375:K375)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4819,11 +4819,11 @@
         <v>128000</v>
       </c>
       <c r="L376" s="2" t="e">
-        <f>AVERAGE(B376:K376)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M376" s="5" t="e">
-        <f>_xlfn.STDEV.P(B376:K376)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4832,11 +4832,11 @@
         <v>256000</v>
       </c>
       <c r="L377" s="2" t="e">
-        <f>AVERAGE(B377:K377)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M377" s="5" t="e">
-        <f>_xlfn.STDEV.P(B377:K377)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4845,11 +4845,11 @@
         <v>512000</v>
       </c>
       <c r="L378" s="2" t="e">
-        <f>AVERAGE(B378:K378)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M378" s="5" t="e">
-        <f>_xlfn.STDEV.P(B378:K378)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4858,11 +4858,11 @@
         <v>1024000</v>
       </c>
       <c r="L379" s="2" t="e">
-        <f>AVERAGE(B379:K379)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M379" s="5" t="e">
-        <f>_xlfn.STDEV.P(B379:K379)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4871,11 +4871,11 @@
         <v>2048000</v>
       </c>
       <c r="L380" s="2" t="e">
-        <f>AVERAGE(B380:K380)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M380" s="5" t="e">
-        <f>_xlfn.STDEV.P(B380:K380)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4884,11 +4884,11 @@
         <v>4096000</v>
       </c>
       <c r="L381" s="2" t="e">
-        <f>AVERAGE(B381:K381)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M381" s="5" t="e">
-        <f>_xlfn.STDEV.P(B381:K381)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4897,11 +4897,11 @@
         <v>8192000</v>
       </c>
       <c r="L382" s="2" t="e">
-        <f>AVERAGE(B382:K382)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M382" s="5" t="e">
-        <f>_xlfn.STDEV.P(B382:K382)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4910,11 +4910,11 @@
         <v>16384000</v>
       </c>
       <c r="L383" s="2" t="e">
-        <f>AVERAGE(B383:K383)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M383" s="5" t="e">
-        <f>_xlfn.STDEV.P(B383:K383)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4923,11 +4923,11 @@
         <v>32768000</v>
       </c>
       <c r="L384" s="2" t="e">
-        <f>AVERAGE(B384:K384)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M384" s="5" t="e">
-        <f>_xlfn.STDEV.P(B384:K384)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4936,11 +4936,11 @@
         <v>65536000</v>
       </c>
       <c r="L385" s="2" t="e">
-        <f>AVERAGE(B385:K385)</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M385" s="5" t="e">
-        <f>_xlfn.STDEV.P(B385:K385)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4949,11 +4949,11 @@
         <v>1000</v>
       </c>
       <c r="L388" s="2" t="e">
-        <f>AVERAGE(B388:K388)</f>
+        <f t="shared" ref="L388:L404" si="40">AVERAGE(B388:K388)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M388" s="5" t="e">
-        <f>_xlfn.STDEV.P(B388:K388)</f>
+        <f t="shared" ref="M388:M404" si="41">_xlfn.STDEV.P(B388:K388)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4962,11 +4962,11 @@
         <v>2000</v>
       </c>
       <c r="L389" s="2" t="e">
-        <f>AVERAGE(B389:K389)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M389" s="5" t="e">
-        <f>_xlfn.STDEV.P(B389:K389)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4975,11 +4975,11 @@
         <v>4000</v>
       </c>
       <c r="L390" s="2" t="e">
-        <f>AVERAGE(B390:K390)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M390" s="5" t="e">
-        <f>_xlfn.STDEV.P(B390:K390)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4988,11 +4988,11 @@
         <v>8000</v>
       </c>
       <c r="L391" s="2" t="e">
-        <f>AVERAGE(B391:K391)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M391" s="5" t="e">
-        <f>_xlfn.STDEV.P(B391:K391)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5001,11 +5001,11 @@
         <v>16000</v>
       </c>
       <c r="L392" s="2" t="e">
-        <f>AVERAGE(B392:K392)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M392" s="5" t="e">
-        <f>_xlfn.STDEV.P(B392:K392)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5014,11 +5014,11 @@
         <v>32000</v>
       </c>
       <c r="L393" s="2" t="e">
-        <f>AVERAGE(B393:K393)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M393" s="5" t="e">
-        <f>_xlfn.STDEV.P(B393:K393)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5027,11 +5027,11 @@
         <v>64000</v>
       </c>
       <c r="L394" s="2" t="e">
-        <f>AVERAGE(B394:K394)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M394" s="5" t="e">
-        <f>_xlfn.STDEV.P(B394:K394)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5040,11 +5040,11 @@
         <v>128000</v>
       </c>
       <c r="L395" s="2" t="e">
-        <f>AVERAGE(B395:K395)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M395" s="5" t="e">
-        <f>_xlfn.STDEV.P(B395:K395)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5053,11 +5053,11 @@
         <v>256000</v>
       </c>
       <c r="L396" s="2" t="e">
-        <f>AVERAGE(B396:K396)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M396" s="5" t="e">
-        <f>_xlfn.STDEV.P(B396:K396)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5066,11 +5066,11 @@
         <v>512000</v>
       </c>
       <c r="L397" s="2" t="e">
-        <f>AVERAGE(B397:K397)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M397" s="5" t="e">
-        <f>_xlfn.STDEV.P(B397:K397)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5079,11 +5079,11 @@
         <v>1024000</v>
       </c>
       <c r="L398" s="2" t="e">
-        <f>AVERAGE(B398:K398)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M398" s="5" t="e">
-        <f>_xlfn.STDEV.P(B398:K398)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5092,11 +5092,11 @@
         <v>2048000</v>
       </c>
       <c r="L399" s="2" t="e">
-        <f>AVERAGE(B399:K399)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M399" s="5" t="e">
-        <f>_xlfn.STDEV.P(B399:K399)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5105,11 +5105,11 @@
         <v>4096000</v>
       </c>
       <c r="L400" s="2" t="e">
-        <f>AVERAGE(B400:K400)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M400" s="5" t="e">
-        <f>_xlfn.STDEV.P(B400:K400)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5118,11 +5118,11 @@
         <v>8192000</v>
       </c>
       <c r="L401" s="2" t="e">
-        <f>AVERAGE(B401:K401)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M401" s="5" t="e">
-        <f>_xlfn.STDEV.P(B401:K401)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5131,11 +5131,11 @@
         <v>16384000</v>
       </c>
       <c r="L402" s="2" t="e">
-        <f>AVERAGE(B402:K402)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M402" s="5" t="e">
-        <f>_xlfn.STDEV.P(B402:K402)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5144,11 +5144,11 @@
         <v>32768000</v>
       </c>
       <c r="L403" s="2" t="e">
-        <f>AVERAGE(B403:K403)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M403" s="5" t="e">
-        <f>_xlfn.STDEV.P(B403:K403)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5157,11 +5157,11 @@
         <v>65536000</v>
       </c>
       <c r="L404" s="2" t="e">
-        <f>AVERAGE(B404:K404)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M404" s="5" t="e">
-        <f>_xlfn.STDEV.P(B404:K404)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5170,11 +5170,11 @@
         <v>1000</v>
       </c>
       <c r="L407" s="2" t="e">
-        <f>AVERAGE(B407:K407)</f>
+        <f t="shared" ref="L407:L423" si="42">AVERAGE(B407:K407)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M407" s="5" t="e">
-        <f>_xlfn.STDEV.P(B407:K407)</f>
+        <f t="shared" ref="M407:M423" si="43">_xlfn.STDEV.P(B407:K407)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5183,11 +5183,11 @@
         <v>2000</v>
       </c>
       <c r="L408" s="2" t="e">
-        <f>AVERAGE(B408:K408)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M408" s="5" t="e">
-        <f>_xlfn.STDEV.P(B408:K408)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5196,11 +5196,11 @@
         <v>4000</v>
       </c>
       <c r="L409" s="2" t="e">
-        <f>AVERAGE(B409:K409)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M409" s="5" t="e">
-        <f>_xlfn.STDEV.P(B409:K409)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5209,11 +5209,11 @@
         <v>8000</v>
       </c>
       <c r="L410" s="2" t="e">
-        <f>AVERAGE(B410:K410)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M410" s="5" t="e">
-        <f>_xlfn.STDEV.P(B410:K410)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5222,11 +5222,11 @@
         <v>16000</v>
       </c>
       <c r="L411" s="2" t="e">
-        <f>AVERAGE(B411:K411)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M411" s="5" t="e">
-        <f>_xlfn.STDEV.P(B411:K411)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5235,11 +5235,11 @@
         <v>32000</v>
       </c>
       <c r="L412" s="2" t="e">
-        <f>AVERAGE(B412:K412)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M412" s="5" t="e">
-        <f>_xlfn.STDEV.P(B412:K412)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5248,11 +5248,11 @@
         <v>64000</v>
       </c>
       <c r="L413" s="2" t="e">
-        <f>AVERAGE(B413:K413)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M413" s="5" t="e">
-        <f>_xlfn.STDEV.P(B413:K413)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5261,11 +5261,11 @@
         <v>128000</v>
       </c>
       <c r="L414" s="2" t="e">
-        <f>AVERAGE(B414:K414)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M414" s="5" t="e">
-        <f>_xlfn.STDEV.P(B414:K414)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5274,11 +5274,11 @@
         <v>256000</v>
       </c>
       <c r="L415" s="2" t="e">
-        <f>AVERAGE(B415:K415)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M415" s="5" t="e">
-        <f>_xlfn.STDEV.P(B415:K415)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5287,11 +5287,11 @@
         <v>512000</v>
       </c>
       <c r="L416" s="2" t="e">
-        <f>AVERAGE(B416:K416)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M416" s="5" t="e">
-        <f>_xlfn.STDEV.P(B416:K416)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5300,11 +5300,11 @@
         <v>1024000</v>
       </c>
       <c r="L417" s="2" t="e">
-        <f>AVERAGE(B417:K417)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M417" s="5" t="e">
-        <f>_xlfn.STDEV.P(B417:K417)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5313,11 +5313,11 @@
         <v>2048000</v>
       </c>
       <c r="L418" s="2" t="e">
-        <f>AVERAGE(B418:K418)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M418" s="5" t="e">
-        <f>_xlfn.STDEV.P(B418:K418)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5326,11 +5326,11 @@
         <v>4096000</v>
       </c>
       <c r="L419" s="2" t="e">
-        <f>AVERAGE(B419:K419)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M419" s="5" t="e">
-        <f>_xlfn.STDEV.P(B419:K419)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5339,11 +5339,11 @@
         <v>8192000</v>
       </c>
       <c r="L420" s="2" t="e">
-        <f>AVERAGE(B420:K420)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M420" s="5" t="e">
-        <f>_xlfn.STDEV.P(B420:K420)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5352,11 +5352,11 @@
         <v>16384000</v>
       </c>
       <c r="L421" s="2" t="e">
-        <f>AVERAGE(B421:K421)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M421" s="5" t="e">
-        <f>_xlfn.STDEV.P(B421:K421)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5365,11 +5365,11 @@
         <v>32768000</v>
       </c>
       <c r="L422" s="2" t="e">
-        <f>AVERAGE(B422:K422)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M422" s="5" t="e">
-        <f>_xlfn.STDEV.P(B422:K422)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5378,11 +5378,11 @@
         <v>65536000</v>
       </c>
       <c r="L423" s="2" t="e">
-        <f>AVERAGE(B423:K423)</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M423" s="5" t="e">
-        <f>_xlfn.STDEV.P(B423:K423)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5391,11 +5391,11 @@
         <v>1000</v>
       </c>
       <c r="L426" s="2" t="e">
-        <f>AVERAGE(B426:K426)</f>
+        <f t="shared" ref="L426:L442" si="44">AVERAGE(B426:K426)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M426" s="5" t="e">
-        <f>_xlfn.STDEV.P(B426:K426)</f>
+        <f t="shared" ref="M426:M442" si="45">_xlfn.STDEV.P(B426:K426)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5404,11 +5404,11 @@
         <v>2000</v>
       </c>
       <c r="L427" s="2" t="e">
-        <f>AVERAGE(B427:K427)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M427" s="5" t="e">
-        <f>_xlfn.STDEV.P(B427:K427)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5417,11 +5417,11 @@
         <v>4000</v>
       </c>
       <c r="L428" s="2" t="e">
-        <f>AVERAGE(B428:K428)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M428" s="5" t="e">
-        <f>_xlfn.STDEV.P(B428:K428)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5430,11 +5430,11 @@
         <v>8000</v>
       </c>
       <c r="L429" s="2" t="e">
-        <f>AVERAGE(B429:K429)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M429" s="5" t="e">
-        <f>_xlfn.STDEV.P(B429:K429)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5443,11 +5443,11 @@
         <v>16000</v>
       </c>
       <c r="L430" s="2" t="e">
-        <f>AVERAGE(B430:K430)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M430" s="5" t="e">
-        <f>_xlfn.STDEV.P(B430:K430)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5456,11 +5456,11 @@
         <v>32000</v>
       </c>
       <c r="L431" s="2" t="e">
-        <f>AVERAGE(B431:K431)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M431" s="5" t="e">
-        <f>_xlfn.STDEV.P(B431:K431)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5469,11 +5469,11 @@
         <v>64000</v>
       </c>
       <c r="L432" s="2" t="e">
-        <f>AVERAGE(B432:K432)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M432" s="5" t="e">
-        <f>_xlfn.STDEV.P(B432:K432)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5482,11 +5482,11 @@
         <v>128000</v>
       </c>
       <c r="L433" s="2" t="e">
-        <f>AVERAGE(B433:K433)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M433" s="5" t="e">
-        <f>_xlfn.STDEV.P(B433:K433)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5495,11 +5495,11 @@
         <v>256000</v>
       </c>
       <c r="L434" s="2" t="e">
-        <f>AVERAGE(B434:K434)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M434" s="5" t="e">
-        <f>_xlfn.STDEV.P(B434:K434)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5508,11 +5508,11 @@
         <v>512000</v>
       </c>
       <c r="L435" s="2" t="e">
-        <f>AVERAGE(B435:K435)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M435" s="5" t="e">
-        <f>_xlfn.STDEV.P(B435:K435)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5521,11 +5521,11 @@
         <v>1024000</v>
       </c>
       <c r="L436" s="2" t="e">
-        <f>AVERAGE(B436:K436)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M436" s="5" t="e">
-        <f>_xlfn.STDEV.P(B436:K436)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5534,11 +5534,11 @@
         <v>2048000</v>
       </c>
       <c r="L437" s="2" t="e">
-        <f>AVERAGE(B437:K437)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M437" s="5" t="e">
-        <f>_xlfn.STDEV.P(B437:K437)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5547,11 +5547,11 @@
         <v>4096000</v>
       </c>
       <c r="L438" s="2" t="e">
-        <f>AVERAGE(B438:K438)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M438" s="5" t="e">
-        <f>_xlfn.STDEV.P(B438:K438)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5560,11 +5560,11 @@
         <v>8192000</v>
       </c>
       <c r="L439" s="2" t="e">
-        <f>AVERAGE(B439:K439)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M439" s="5" t="e">
-        <f>_xlfn.STDEV.P(B439:K439)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5573,11 +5573,11 @@
         <v>16384000</v>
       </c>
       <c r="L440" s="2" t="e">
-        <f>AVERAGE(B440:K440)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M440" s="5" t="e">
-        <f>_xlfn.STDEV.P(B440:K440)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5586,11 +5586,11 @@
         <v>32768000</v>
       </c>
       <c r="L441" s="2" t="e">
-        <f>AVERAGE(B441:K441)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M441" s="5" t="e">
-        <f>_xlfn.STDEV.P(B441:K441)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5599,11 +5599,11 @@
         <v>65536000</v>
       </c>
       <c r="L442" s="2" t="e">
-        <f>AVERAGE(B442:K442)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M442" s="5" t="e">
-        <f>_xlfn.STDEV.P(B442:K442)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5612,11 +5612,11 @@
         <v>1000</v>
       </c>
       <c r="L445" s="2" t="e">
-        <f>AVERAGE(B445:K445)</f>
+        <f t="shared" ref="L445:L461" si="46">AVERAGE(B445:K445)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M445" s="5" t="e">
-        <f>_xlfn.STDEV.P(B445:K445)</f>
+        <f t="shared" ref="M445:M461" si="47">_xlfn.STDEV.P(B445:K445)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5625,11 +5625,11 @@
         <v>2000</v>
       </c>
       <c r="L446" s="2" t="e">
-        <f>AVERAGE(B446:K446)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M446" s="5" t="e">
-        <f>_xlfn.STDEV.P(B446:K446)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5638,11 +5638,11 @@
         <v>4000</v>
       </c>
       <c r="L447" s="2" t="e">
-        <f>AVERAGE(B447:K447)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M447" s="5" t="e">
-        <f>_xlfn.STDEV.P(B447:K447)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5651,11 +5651,11 @@
         <v>8000</v>
       </c>
       <c r="L448" s="2" t="e">
-        <f>AVERAGE(B448:K448)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M448" s="5" t="e">
-        <f>_xlfn.STDEV.P(B448:K448)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5664,11 +5664,11 @@
         <v>16000</v>
       </c>
       <c r="L449" s="2" t="e">
-        <f>AVERAGE(B449:K449)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M449" s="5" t="e">
-        <f>_xlfn.STDEV.P(B449:K449)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         <v>32000</v>
       </c>
       <c r="L450" s="2" t="e">
-        <f>AVERAGE(B450:K450)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M450" s="5" t="e">
-        <f>_xlfn.STDEV.P(B450:K450)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5690,11 +5690,11 @@
         <v>64000</v>
       </c>
       <c r="L451" s="2" t="e">
-        <f>AVERAGE(B451:K451)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M451" s="5" t="e">
-        <f>_xlfn.STDEV.P(B451:K451)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5703,11 +5703,11 @@
         <v>128000</v>
       </c>
       <c r="L452" s="2" t="e">
-        <f>AVERAGE(B452:K452)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M452" s="5" t="e">
-        <f>_xlfn.STDEV.P(B452:K452)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5716,11 +5716,11 @@
         <v>256000</v>
       </c>
       <c r="L453" s="2" t="e">
-        <f>AVERAGE(B453:K453)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M453" s="5" t="e">
-        <f>_xlfn.STDEV.P(B453:K453)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5729,11 +5729,11 @@
         <v>512000</v>
       </c>
       <c r="L454" s="2" t="e">
-        <f>AVERAGE(B454:K454)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M454" s="5" t="e">
-        <f>_xlfn.STDEV.P(B454:K454)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5742,11 +5742,11 @@
         <v>1024000</v>
       </c>
       <c r="L455" s="2" t="e">
-        <f>AVERAGE(B455:K455)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M455" s="5" t="e">
-        <f>_xlfn.STDEV.P(B455:K455)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5755,11 +5755,11 @@
         <v>2048000</v>
       </c>
       <c r="L456" s="2" t="e">
-        <f>AVERAGE(B456:K456)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M456" s="5" t="e">
-        <f>_xlfn.STDEV.P(B456:K456)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5768,11 +5768,11 @@
         <v>4096000</v>
       </c>
       <c r="L457" s="2" t="e">
-        <f>AVERAGE(B457:K457)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M457" s="5" t="e">
-        <f>_xlfn.STDEV.P(B457:K457)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5781,11 +5781,11 @@
         <v>8192000</v>
       </c>
       <c r="L458" s="2" t="e">
-        <f>AVERAGE(B458:K458)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M458" s="5" t="e">
-        <f>_xlfn.STDEV.P(B458:K458)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5794,11 +5794,11 @@
         <v>16384000</v>
       </c>
       <c r="L459" s="2" t="e">
-        <f>AVERAGE(B459:K459)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M459" s="5" t="e">
-        <f>_xlfn.STDEV.P(B459:K459)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5807,11 +5807,11 @@
         <v>32768000</v>
       </c>
       <c r="L460" s="2" t="e">
-        <f>AVERAGE(B460:K460)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M460" s="5" t="e">
-        <f>_xlfn.STDEV.P(B460:K460)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5820,11 +5820,11 @@
         <v>65536000</v>
       </c>
       <c r="L461" s="2" t="e">
-        <f>AVERAGE(B461:K461)</f>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M461" s="5" t="e">
-        <f>_xlfn.STDEV.P(B461:K461)</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5833,11 +5833,11 @@
         <v>1000</v>
       </c>
       <c r="L464" s="2" t="e">
-        <f>AVERAGE(B464:K464)</f>
+        <f t="shared" ref="L464:L480" si="48">AVERAGE(B464:K464)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M464" s="5" t="e">
-        <f>_xlfn.STDEV.P(B464:K464)</f>
+        <f t="shared" ref="M464:M480" si="49">_xlfn.STDEV.P(B464:K464)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5846,11 +5846,11 @@
         <v>2000</v>
       </c>
       <c r="L465" s="2" t="e">
-        <f>AVERAGE(B465:K465)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M465" s="5" t="e">
-        <f>_xlfn.STDEV.P(B465:K465)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5859,11 +5859,11 @@
         <v>4000</v>
       </c>
       <c r="L466" s="2" t="e">
-        <f>AVERAGE(B466:K466)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M466" s="5" t="e">
-        <f>_xlfn.STDEV.P(B466:K466)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5872,11 +5872,11 @@
         <v>8000</v>
       </c>
       <c r="L467" s="2" t="e">
-        <f>AVERAGE(B467:K467)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M467" s="5" t="e">
-        <f>_xlfn.STDEV.P(B467:K467)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5885,11 +5885,11 @@
         <v>16000</v>
       </c>
       <c r="L468" s="2" t="e">
-        <f>AVERAGE(B468:K468)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M468" s="5" t="e">
-        <f>_xlfn.STDEV.P(B468:K468)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5898,11 +5898,11 @@
         <v>32000</v>
       </c>
       <c r="L469" s="2" t="e">
-        <f>AVERAGE(B469:K469)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M469" s="5" t="e">
-        <f>_xlfn.STDEV.P(B469:K469)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5911,11 +5911,11 @@
         <v>64000</v>
       </c>
       <c r="L470" s="2" t="e">
-        <f>AVERAGE(B470:K470)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M470" s="5" t="e">
-        <f>_xlfn.STDEV.P(B470:K470)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5924,11 +5924,11 @@
         <v>128000</v>
       </c>
       <c r="L471" s="2" t="e">
-        <f>AVERAGE(B471:K471)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M471" s="5" t="e">
-        <f>_xlfn.STDEV.P(B471:K471)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5937,11 +5937,11 @@
         <v>256000</v>
       </c>
       <c r="L472" s="2" t="e">
-        <f>AVERAGE(B472:K472)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M472" s="5" t="e">
-        <f>_xlfn.STDEV.P(B472:K472)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5950,11 +5950,11 @@
         <v>512000</v>
       </c>
       <c r="L473" s="2" t="e">
-        <f>AVERAGE(B473:K473)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M473" s="5" t="e">
-        <f>_xlfn.STDEV.P(B473:K473)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5963,11 +5963,11 @@
         <v>1024000</v>
       </c>
       <c r="L474" s="2" t="e">
-        <f>AVERAGE(B474:K474)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M474" s="5" t="e">
-        <f>_xlfn.STDEV.P(B474:K474)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5976,11 +5976,11 @@
         <v>2048000</v>
       </c>
       <c r="L475" s="2" t="e">
-        <f>AVERAGE(B475:K475)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M475" s="5" t="e">
-        <f>_xlfn.STDEV.P(B475:K475)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5989,11 +5989,11 @@
         <v>4096000</v>
       </c>
       <c r="L476" s="2" t="e">
-        <f>AVERAGE(B476:K476)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M476" s="5" t="e">
-        <f>_xlfn.STDEV.P(B476:K476)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6002,11 +6002,11 @@
         <v>8192000</v>
       </c>
       <c r="L477" s="2" t="e">
-        <f>AVERAGE(B477:K477)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M477" s="5" t="e">
-        <f>_xlfn.STDEV.P(B477:K477)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6015,11 +6015,11 @@
         <v>16384000</v>
       </c>
       <c r="L478" s="2" t="e">
-        <f>AVERAGE(B478:K478)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M478" s="5" t="e">
-        <f>_xlfn.STDEV.P(B478:K478)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6028,11 +6028,11 @@
         <v>32768000</v>
       </c>
       <c r="L479" s="2" t="e">
-        <f>AVERAGE(B479:K479)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M479" s="5" t="e">
-        <f>_xlfn.STDEV.P(B479:K479)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6041,11 +6041,11 @@
         <v>65536000</v>
       </c>
       <c r="L480" s="2" t="e">
-        <f>AVERAGE(B480:K480)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M480" s="5" t="e">
-        <f>_xlfn.STDEV.P(B480:K480)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6054,11 +6054,11 @@
         <v>1000</v>
       </c>
       <c r="L483" s="2" t="e">
-        <f>AVERAGE(B483:K483)</f>
+        <f t="shared" ref="L483:L499" si="50">AVERAGE(B483:K483)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M483" s="5" t="e">
-        <f>_xlfn.STDEV.P(B483:K483)</f>
+        <f t="shared" ref="M483:M499" si="51">_xlfn.STDEV.P(B483:K483)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6067,11 +6067,11 @@
         <v>2000</v>
       </c>
       <c r="L484" s="2" t="e">
-        <f>AVERAGE(B484:K484)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M484" s="5" t="e">
-        <f>_xlfn.STDEV.P(B484:K484)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6080,11 +6080,11 @@
         <v>4000</v>
       </c>
       <c r="L485" s="2" t="e">
-        <f>AVERAGE(B485:K485)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M485" s="5" t="e">
-        <f>_xlfn.STDEV.P(B485:K485)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6093,11 +6093,11 @@
         <v>8000</v>
       </c>
       <c r="L486" s="2" t="e">
-        <f>AVERAGE(B486:K486)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M486" s="5" t="e">
-        <f>_xlfn.STDEV.P(B486:K486)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6106,11 +6106,11 @@
         <v>16000</v>
       </c>
       <c r="L487" s="2" t="e">
-        <f>AVERAGE(B487:K487)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M487" s="5" t="e">
-        <f>_xlfn.STDEV.P(B487:K487)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6119,11 +6119,11 @@
         <v>32000</v>
       </c>
       <c r="L488" s="2" t="e">
-        <f>AVERAGE(B488:K488)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M488" s="5" t="e">
-        <f>_xlfn.STDEV.P(B488:K488)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6132,11 +6132,11 @@
         <v>64000</v>
       </c>
       <c r="L489" s="2" t="e">
-        <f>AVERAGE(B489:K489)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M489" s="5" t="e">
-        <f>_xlfn.STDEV.P(B489:K489)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6145,11 +6145,11 @@
         <v>128000</v>
       </c>
       <c r="L490" s="2" t="e">
-        <f>AVERAGE(B490:K490)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M490" s="5" t="e">
-        <f>_xlfn.STDEV.P(B490:K490)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6158,11 +6158,11 @@
         <v>256000</v>
       </c>
       <c r="L491" s="2" t="e">
-        <f>AVERAGE(B491:K491)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M491" s="5" t="e">
-        <f>_xlfn.STDEV.P(B491:K491)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6171,11 +6171,11 @@
         <v>512000</v>
       </c>
       <c r="L492" s="2" t="e">
-        <f>AVERAGE(B492:K492)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M492" s="5" t="e">
-        <f>_xlfn.STDEV.P(B492:K492)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6184,11 +6184,11 @@
         <v>1024000</v>
       </c>
       <c r="L493" s="2" t="e">
-        <f>AVERAGE(B493:K493)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M493" s="5" t="e">
-        <f>_xlfn.STDEV.P(B493:K493)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6197,11 +6197,11 @@
         <v>2048000</v>
       </c>
       <c r="L494" s="2" t="e">
-        <f>AVERAGE(B494:K494)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M494" s="5" t="e">
-        <f>_xlfn.STDEV.P(B494:K494)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6210,11 +6210,11 @@
         <v>4096000</v>
       </c>
       <c r="L495" s="2" t="e">
-        <f>AVERAGE(B495:K495)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M495" s="5" t="e">
-        <f>_xlfn.STDEV.P(B495:K495)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6223,11 +6223,11 @@
         <v>8192000</v>
       </c>
       <c r="L496" s="2" t="e">
-        <f>AVERAGE(B496:K496)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M496" s="5" t="e">
-        <f>_xlfn.STDEV.P(B496:K496)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6236,11 +6236,11 @@
         <v>16384000</v>
       </c>
       <c r="L497" s="2" t="e">
-        <f>AVERAGE(B497:K497)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M497" s="5" t="e">
-        <f>_xlfn.STDEV.P(B497:K497)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6249,11 +6249,11 @@
         <v>32768000</v>
       </c>
       <c r="L498" s="2" t="e">
-        <f>AVERAGE(B498:K498)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M498" s="5" t="e">
-        <f>_xlfn.STDEV.P(B498:K498)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6262,11 +6262,11 @@
         <v>65536000</v>
       </c>
       <c r="L499" s="2" t="e">
-        <f>AVERAGE(B499:K499)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M499" s="5" t="e">
-        <f>_xlfn.STDEV.P(B499:K499)</f>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6275,11 +6275,11 @@
         <v>1000</v>
       </c>
       <c r="L502" s="2" t="e">
-        <f>AVERAGE(B502:K502)</f>
+        <f t="shared" ref="L502:L518" si="52">AVERAGE(B502:K502)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M502" s="5" t="e">
-        <f>_xlfn.STDEV.P(B502:K502)</f>
+        <f t="shared" ref="M502:M518" si="53">_xlfn.STDEV.P(B502:K502)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6288,11 +6288,11 @@
         <v>2000</v>
       </c>
       <c r="L503" s="2" t="e">
-        <f>AVERAGE(B503:K503)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M503" s="5" t="e">
-        <f>_xlfn.STDEV.P(B503:K503)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6301,11 +6301,11 @@
         <v>4000</v>
       </c>
       <c r="L504" s="2" t="e">
-        <f>AVERAGE(B504:K504)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M504" s="5" t="e">
-        <f>_xlfn.STDEV.P(B504:K504)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6314,11 +6314,11 @@
         <v>8000</v>
       </c>
       <c r="L505" s="2" t="e">
-        <f>AVERAGE(B505:K505)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M505" s="5" t="e">
-        <f>_xlfn.STDEV.P(B505:K505)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6327,11 +6327,11 @@
         <v>16000</v>
       </c>
       <c r="L506" s="2" t="e">
-        <f>AVERAGE(B506:K506)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M506" s="5" t="e">
-        <f>_xlfn.STDEV.P(B506:K506)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6340,11 +6340,11 @@
         <v>32000</v>
       </c>
       <c r="L507" s="2" t="e">
-        <f>AVERAGE(B507:K507)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M507" s="5" t="e">
-        <f>_xlfn.STDEV.P(B507:K507)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6353,11 +6353,11 @@
         <v>64000</v>
       </c>
       <c r="L508" s="2" t="e">
-        <f>AVERAGE(B508:K508)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M508" s="5" t="e">
-        <f>_xlfn.STDEV.P(B508:K508)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6366,11 +6366,11 @@
         <v>128000</v>
       </c>
       <c r="L509" s="2" t="e">
-        <f>AVERAGE(B509:K509)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M509" s="5" t="e">
-        <f>_xlfn.STDEV.P(B509:K509)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6379,11 +6379,11 @@
         <v>256000</v>
       </c>
       <c r="L510" s="2" t="e">
-        <f>AVERAGE(B510:K510)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M510" s="5" t="e">
-        <f>_xlfn.STDEV.P(B510:K510)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6392,11 +6392,11 @@
         <v>512000</v>
       </c>
       <c r="L511" s="2" t="e">
-        <f>AVERAGE(B511:K511)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M511" s="5" t="e">
-        <f>_xlfn.STDEV.P(B511:K511)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6405,11 +6405,11 @@
         <v>1024000</v>
       </c>
       <c r="L512" s="2" t="e">
-        <f>AVERAGE(B512:K512)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M512" s="5" t="e">
-        <f>_xlfn.STDEV.P(B512:K512)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6418,11 +6418,11 @@
         <v>2048000</v>
       </c>
       <c r="L513" s="2" t="e">
-        <f>AVERAGE(B513:K513)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M513" s="5" t="e">
-        <f>_xlfn.STDEV.P(B513:K513)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6431,11 +6431,11 @@
         <v>4096000</v>
       </c>
       <c r="L514" s="2" t="e">
-        <f>AVERAGE(B514:K514)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M514" s="5" t="e">
-        <f>_xlfn.STDEV.P(B514:K514)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6444,11 +6444,11 @@
         <v>8192000</v>
       </c>
       <c r="L515" s="2" t="e">
-        <f>AVERAGE(B515:K515)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M515" s="5" t="e">
-        <f>_xlfn.STDEV.P(B515:K515)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6457,11 +6457,11 @@
         <v>16384000</v>
       </c>
       <c r="L516" s="2" t="e">
-        <f>AVERAGE(B516:K516)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M516" s="5" t="e">
-        <f>_xlfn.STDEV.P(B516:K516)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6470,11 +6470,11 @@
         <v>32768000</v>
       </c>
       <c r="L517" s="2" t="e">
-        <f>AVERAGE(B517:K517)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M517" s="5" t="e">
-        <f>_xlfn.STDEV.P(B517:K517)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6483,11 +6483,11 @@
         <v>65536000</v>
       </c>
       <c r="L518" s="2" t="e">
-        <f>AVERAGE(B518:K518)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M518" s="5" t="e">
-        <f>_xlfn.STDEV.P(B518:K518)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6496,11 +6496,11 @@
         <v>1000</v>
       </c>
       <c r="L521" s="2" t="e">
-        <f>AVERAGE(B521:K521)</f>
+        <f t="shared" ref="L521:L537" si="54">AVERAGE(B521:K521)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M521" s="5" t="e">
-        <f>_xlfn.STDEV.P(B521:K521)</f>
+        <f t="shared" ref="M521:M537" si="55">_xlfn.STDEV.P(B521:K521)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6509,11 +6509,11 @@
         <v>2000</v>
       </c>
       <c r="L522" s="2" t="e">
-        <f>AVERAGE(B522:K522)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M522" s="5" t="e">
-        <f>_xlfn.STDEV.P(B522:K522)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6522,11 +6522,11 @@
         <v>4000</v>
       </c>
       <c r="L523" s="2" t="e">
-        <f>AVERAGE(B523:K523)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M523" s="5" t="e">
-        <f>_xlfn.STDEV.P(B523:K523)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6535,11 +6535,11 @@
         <v>8000</v>
       </c>
       <c r="L524" s="2" t="e">
-        <f>AVERAGE(B524:K524)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M524" s="5" t="e">
-        <f>_xlfn.STDEV.P(B524:K524)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6548,11 +6548,11 @@
         <v>16000</v>
       </c>
       <c r="L525" s="2" t="e">
-        <f>AVERAGE(B525:K525)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M525" s="5" t="e">
-        <f>_xlfn.STDEV.P(B525:K525)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6561,11 +6561,11 @@
         <v>32000</v>
       </c>
       <c r="L526" s="2" t="e">
-        <f>AVERAGE(B526:K526)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M526" s="5" t="e">
-        <f>_xlfn.STDEV.P(B526:K526)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6574,11 +6574,11 @@
         <v>64000</v>
       </c>
       <c r="L527" s="2" t="e">
-        <f>AVERAGE(B527:K527)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M527" s="5" t="e">
-        <f>_xlfn.STDEV.P(B527:K527)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6587,11 +6587,11 @@
         <v>128000</v>
       </c>
       <c r="L528" s="2" t="e">
-        <f>AVERAGE(B528:K528)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M528" s="5" t="e">
-        <f>_xlfn.STDEV.P(B528:K528)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6600,11 +6600,11 @@
         <v>256000</v>
       </c>
       <c r="L529" s="2" t="e">
-        <f>AVERAGE(B529:K529)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M529" s="5" t="e">
-        <f>_xlfn.STDEV.P(B529:K529)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6613,11 +6613,11 @@
         <v>512000</v>
       </c>
       <c r="L530" s="2" t="e">
-        <f>AVERAGE(B530:K530)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M530" s="5" t="e">
-        <f>_xlfn.STDEV.P(B530:K530)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6626,11 +6626,11 @@
         <v>1024000</v>
       </c>
       <c r="L531" s="2" t="e">
-        <f>AVERAGE(B531:K531)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M531" s="5" t="e">
-        <f>_xlfn.STDEV.P(B531:K531)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6639,11 +6639,11 @@
         <v>2048000</v>
       </c>
       <c r="L532" s="2" t="e">
-        <f>AVERAGE(B532:K532)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M532" s="5" t="e">
-        <f>_xlfn.STDEV.P(B532:K532)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6652,11 +6652,11 @@
         <v>4096000</v>
       </c>
       <c r="L533" s="2" t="e">
-        <f>AVERAGE(B533:K533)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M533" s="5" t="e">
-        <f>_xlfn.STDEV.P(B533:K533)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6665,11 +6665,11 @@
         <v>8192000</v>
       </c>
       <c r="L534" s="2" t="e">
-        <f>AVERAGE(B534:K534)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M534" s="5" t="e">
-        <f>_xlfn.STDEV.P(B534:K534)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6678,11 +6678,11 @@
         <v>16384000</v>
       </c>
       <c r="L535" s="2" t="e">
-        <f>AVERAGE(B535:K535)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M535" s="5" t="e">
-        <f>_xlfn.STDEV.P(B535:K535)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6691,11 +6691,11 @@
         <v>32768000</v>
       </c>
       <c r="L536" s="2" t="e">
-        <f>AVERAGE(B536:K536)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M536" s="5" t="e">
-        <f>_xlfn.STDEV.P(B536:K536)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6704,11 +6704,11 @@
         <v>65536000</v>
       </c>
       <c r="L537" s="2" t="e">
-        <f>AVERAGE(B537:K537)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M537" s="5" t="e">
-        <f>_xlfn.STDEV.P(B537:K537)</f>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6717,11 +6717,11 @@
         <v>1000</v>
       </c>
       <c r="L540" s="2" t="e">
-        <f>AVERAGE(B540:K540)</f>
+        <f t="shared" ref="L540:L556" si="56">AVERAGE(B540:K540)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M540" s="5" t="e">
-        <f>_xlfn.STDEV.P(B540:K540)</f>
+        <f t="shared" ref="M540:M556" si="57">_xlfn.STDEV.P(B540:K540)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6730,11 +6730,11 @@
         <v>2000</v>
       </c>
       <c r="L541" s="2" t="e">
-        <f>AVERAGE(B541:K541)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M541" s="5" t="e">
-        <f>_xlfn.STDEV.P(B541:K541)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6743,11 +6743,11 @@
         <v>4000</v>
       </c>
       <c r="L542" s="2" t="e">
-        <f>AVERAGE(B542:K542)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M542" s="5" t="e">
-        <f>_xlfn.STDEV.P(B542:K542)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6756,11 +6756,11 @@
         <v>8000</v>
       </c>
       <c r="L543" s="2" t="e">
-        <f>AVERAGE(B543:K543)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M543" s="5" t="e">
-        <f>_xlfn.STDEV.P(B543:K543)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6769,11 +6769,11 @@
         <v>16000</v>
       </c>
       <c r="L544" s="2" t="e">
-        <f>AVERAGE(B544:K544)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M544" s="5" t="e">
-        <f>_xlfn.STDEV.P(B544:K544)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6782,11 +6782,11 @@
         <v>32000</v>
       </c>
       <c r="L545" s="2" t="e">
-        <f>AVERAGE(B545:K545)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M545" s="5" t="e">
-        <f>_xlfn.STDEV.P(B545:K545)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6795,11 +6795,11 @@
         <v>64000</v>
       </c>
       <c r="L546" s="2" t="e">
-        <f>AVERAGE(B546:K546)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M546" s="5" t="e">
-        <f>_xlfn.STDEV.P(B546:K546)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6808,11 +6808,11 @@
         <v>128000</v>
       </c>
       <c r="L547" s="2" t="e">
-        <f>AVERAGE(B547:K547)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M547" s="5" t="e">
-        <f>_xlfn.STDEV.P(B547:K547)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6821,11 +6821,11 @@
         <v>256000</v>
       </c>
       <c r="L548" s="2" t="e">
-        <f>AVERAGE(B548:K548)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M548" s="5" t="e">
-        <f>_xlfn.STDEV.P(B548:K548)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6834,11 +6834,11 @@
         <v>512000</v>
       </c>
       <c r="L549" s="2" t="e">
-        <f>AVERAGE(B549:K549)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M549" s="5" t="e">
-        <f>_xlfn.STDEV.P(B549:K549)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6847,11 +6847,11 @@
         <v>1024000</v>
       </c>
       <c r="L550" s="2" t="e">
-        <f>AVERAGE(B550:K550)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M550" s="5" t="e">
-        <f>_xlfn.STDEV.P(B550:K550)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6860,11 +6860,11 @@
         <v>2048000</v>
       </c>
       <c r="L551" s="2" t="e">
-        <f>AVERAGE(B551:K551)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M551" s="5" t="e">
-        <f>_xlfn.STDEV.P(B551:K551)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6873,11 +6873,11 @@
         <v>4096000</v>
       </c>
       <c r="L552" s="2" t="e">
-        <f>AVERAGE(B552:K552)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M552" s="5" t="e">
-        <f>_xlfn.STDEV.P(B552:K552)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6886,11 +6886,11 @@
         <v>8192000</v>
       </c>
       <c r="L553" s="2" t="e">
-        <f>AVERAGE(B553:K553)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M553" s="5" t="e">
-        <f>_xlfn.STDEV.P(B553:K553)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6899,11 +6899,11 @@
         <v>16384000</v>
       </c>
       <c r="L554" s="2" t="e">
-        <f>AVERAGE(B554:K554)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M554" s="5" t="e">
-        <f>_xlfn.STDEV.P(B554:K554)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6912,11 +6912,11 @@
         <v>32768000</v>
       </c>
       <c r="L555" s="2" t="e">
-        <f>AVERAGE(B555:K555)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M555" s="5" t="e">
-        <f>_xlfn.STDEV.P(B555:K555)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6925,11 +6925,11 @@
         <v>65536000</v>
       </c>
       <c r="L556" s="2" t="e">
-        <f>AVERAGE(B556:K556)</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M556" s="5" t="e">
-        <f>_xlfn.STDEV.P(B556:K556)</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6938,11 +6938,11 @@
         <v>1000</v>
       </c>
       <c r="L559" s="2" t="e">
-        <f>AVERAGE(B559:K559)</f>
+        <f t="shared" ref="L559:L575" si="58">AVERAGE(B559:K559)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M559" s="5" t="e">
-        <f>_xlfn.STDEV.P(B559:K559)</f>
+        <f t="shared" ref="M559:M575" si="59">_xlfn.STDEV.P(B559:K559)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6951,11 +6951,11 @@
         <v>2000</v>
       </c>
       <c r="L560" s="2" t="e">
-        <f>AVERAGE(B560:K560)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M560" s="5" t="e">
-        <f>_xlfn.STDEV.P(B560:K560)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6964,11 +6964,11 @@
         <v>4000</v>
       </c>
       <c r="L561" s="2" t="e">
-        <f>AVERAGE(B561:K561)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M561" s="5" t="e">
-        <f>_xlfn.STDEV.P(B561:K561)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6977,11 +6977,11 @@
         <v>8000</v>
       </c>
       <c r="L562" s="2" t="e">
-        <f>AVERAGE(B562:K562)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M562" s="5" t="e">
-        <f>_xlfn.STDEV.P(B562:K562)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6990,11 +6990,11 @@
         <v>16000</v>
       </c>
       <c r="L563" s="2" t="e">
-        <f>AVERAGE(B563:K563)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M563" s="5" t="e">
-        <f>_xlfn.STDEV.P(B563:K563)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7003,11 +7003,11 @@
         <v>32000</v>
       </c>
       <c r="L564" s="2" t="e">
-        <f>AVERAGE(B564:K564)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M564" s="5" t="e">
-        <f>_xlfn.STDEV.P(B564:K564)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7016,11 +7016,11 @@
         <v>64000</v>
       </c>
       <c r="L565" s="2" t="e">
-        <f>AVERAGE(B565:K565)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M565" s="5" t="e">
-        <f>_xlfn.STDEV.P(B565:K565)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7029,11 +7029,11 @@
         <v>128000</v>
       </c>
       <c r="L566" s="2" t="e">
-        <f>AVERAGE(B566:K566)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M566" s="5" t="e">
-        <f>_xlfn.STDEV.P(B566:K566)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7042,11 +7042,11 @@
         <v>256000</v>
       </c>
       <c r="L567" s="2" t="e">
-        <f>AVERAGE(B567:K567)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M567" s="5" t="e">
-        <f>_xlfn.STDEV.P(B567:K567)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7055,11 +7055,11 @@
         <v>512000</v>
       </c>
       <c r="L568" s="2" t="e">
-        <f>AVERAGE(B568:K568)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M568" s="5" t="e">
-        <f>_xlfn.STDEV.P(B568:K568)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7068,11 +7068,11 @@
         <v>1024000</v>
       </c>
       <c r="L569" s="2" t="e">
-        <f>AVERAGE(B569:K569)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M569" s="5" t="e">
-        <f>_xlfn.STDEV.P(B569:K569)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7081,11 +7081,11 @@
         <v>2048000</v>
       </c>
       <c r="L570" s="2" t="e">
-        <f>AVERAGE(B570:K570)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M570" s="5" t="e">
-        <f>_xlfn.STDEV.P(B570:K570)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7094,11 +7094,11 @@
         <v>4096000</v>
       </c>
       <c r="L571" s="2" t="e">
-        <f>AVERAGE(B571:K571)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M571" s="5" t="e">
-        <f>_xlfn.STDEV.P(B571:K571)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7107,11 +7107,11 @@
         <v>8192000</v>
       </c>
       <c r="L572" s="2" t="e">
-        <f>AVERAGE(B572:K572)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M572" s="5" t="e">
-        <f>_xlfn.STDEV.P(B572:K572)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7120,11 +7120,11 @@
         <v>16384000</v>
       </c>
       <c r="L573" s="2" t="e">
-        <f>AVERAGE(B573:K573)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M573" s="5" t="e">
-        <f>_xlfn.STDEV.P(B573:K573)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7133,11 +7133,11 @@
         <v>32768000</v>
       </c>
       <c r="L574" s="2" t="e">
-        <f>AVERAGE(B574:K574)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M574" s="5" t="e">
-        <f>_xlfn.STDEV.P(B574:K574)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7146,11 +7146,11 @@
         <v>65536000</v>
       </c>
       <c r="L575" s="2" t="e">
-        <f>AVERAGE(B575:K575)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M575" s="5" t="e">
-        <f>_xlfn.STDEV.P(B575:K575)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7159,11 +7159,11 @@
         <v>1000</v>
       </c>
       <c r="L578" s="2" t="e">
-        <f>AVERAGE(B578:K578)</f>
+        <f t="shared" ref="L578:L594" si="60">AVERAGE(B578:K578)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M578" s="5" t="e">
-        <f>_xlfn.STDEV.P(B578:K578)</f>
+        <f t="shared" ref="M578:M594" si="61">_xlfn.STDEV.P(B578:K578)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7172,11 +7172,11 @@
         <v>2000</v>
       </c>
       <c r="L579" s="2" t="e">
-        <f>AVERAGE(B579:K579)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M579" s="5" t="e">
-        <f>_xlfn.STDEV.P(B579:K579)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7185,11 +7185,11 @@
         <v>4000</v>
       </c>
       <c r="L580" s="2" t="e">
-        <f>AVERAGE(B580:K580)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M580" s="5" t="e">
-        <f>_xlfn.STDEV.P(B580:K580)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7198,11 +7198,11 @@
         <v>8000</v>
       </c>
       <c r="L581" s="2" t="e">
-        <f>AVERAGE(B581:K581)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M581" s="5" t="e">
-        <f>_xlfn.STDEV.P(B581:K581)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7211,11 +7211,11 @@
         <v>16000</v>
       </c>
       <c r="L582" s="2" t="e">
-        <f>AVERAGE(B582:K582)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M582" s="5" t="e">
-        <f>_xlfn.STDEV.P(B582:K582)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7224,11 +7224,11 @@
         <v>32000</v>
       </c>
       <c r="L583" s="2" t="e">
-        <f>AVERAGE(B583:K583)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M583" s="5" t="e">
-        <f>_xlfn.STDEV.P(B583:K583)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7237,11 +7237,11 @@
         <v>64000</v>
       </c>
       <c r="L584" s="2" t="e">
-        <f>AVERAGE(B584:K584)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M584" s="5" t="e">
-        <f>_xlfn.STDEV.P(B584:K584)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7250,11 +7250,11 @@
         <v>128000</v>
       </c>
       <c r="L585" s="2" t="e">
-        <f>AVERAGE(B585:K585)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M585" s="5" t="e">
-        <f>_xlfn.STDEV.P(B585:K585)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7263,11 +7263,11 @@
         <v>256000</v>
       </c>
       <c r="L586" s="2" t="e">
-        <f>AVERAGE(B586:K586)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M586" s="5" t="e">
-        <f>_xlfn.STDEV.P(B586:K586)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7276,11 +7276,11 @@
         <v>512000</v>
       </c>
       <c r="L587" s="2" t="e">
-        <f>AVERAGE(B587:K587)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M587" s="5" t="e">
-        <f>_xlfn.STDEV.P(B587:K587)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7289,11 +7289,11 @@
         <v>1024000</v>
       </c>
       <c r="L588" s="2" t="e">
-        <f>AVERAGE(B588:K588)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M588" s="5" t="e">
-        <f>_xlfn.STDEV.P(B588:K588)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7302,11 +7302,11 @@
         <v>2048000</v>
       </c>
       <c r="L589" s="2" t="e">
-        <f>AVERAGE(B589:K589)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M589" s="5" t="e">
-        <f>_xlfn.STDEV.P(B589:K589)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7315,11 +7315,11 @@
         <v>4096000</v>
       </c>
       <c r="L590" s="2" t="e">
-        <f>AVERAGE(B590:K590)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M590" s="5" t="e">
-        <f>_xlfn.STDEV.P(B590:K590)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7328,11 +7328,11 @@
         <v>8192000</v>
       </c>
       <c r="L591" s="2" t="e">
-        <f>AVERAGE(B591:K591)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M591" s="5" t="e">
-        <f>_xlfn.STDEV.P(B591:K591)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7341,11 +7341,11 @@
         <v>16384000</v>
       </c>
       <c r="L592" s="2" t="e">
-        <f>AVERAGE(B592:K592)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M592" s="5" t="e">
-        <f>_xlfn.STDEV.P(B592:K592)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7354,11 +7354,11 @@
         <v>32768000</v>
       </c>
       <c r="L593" s="2" t="e">
-        <f>AVERAGE(B593:K593)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M593" s="5" t="e">
-        <f>_xlfn.STDEV.P(B593:K593)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7367,11 +7367,11 @@
         <v>65536000</v>
       </c>
       <c r="L594" s="2" t="e">
-        <f>AVERAGE(B594:K594)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M594" s="5" t="e">
-        <f>_xlfn.STDEV.P(B594:K594)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7380,11 +7380,11 @@
         <v>1000</v>
       </c>
       <c r="L597" s="2" t="e">
-        <f>AVERAGE(B597:K597)</f>
+        <f t="shared" ref="L597:L613" si="62">AVERAGE(B597:K597)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M597" s="5" t="e">
-        <f>_xlfn.STDEV.P(B597:K597)</f>
+        <f t="shared" ref="M597:M613" si="63">_xlfn.STDEV.P(B597:K597)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7393,11 +7393,11 @@
         <v>2000</v>
       </c>
       <c r="L598" s="2" t="e">
-        <f>AVERAGE(B598:K598)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M598" s="5" t="e">
-        <f>_xlfn.STDEV.P(B598:K598)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7406,11 +7406,11 @@
         <v>4000</v>
       </c>
       <c r="L599" s="2" t="e">
-        <f>AVERAGE(B599:K599)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M599" s="5" t="e">
-        <f>_xlfn.STDEV.P(B599:K599)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7419,11 +7419,11 @@
         <v>8000</v>
       </c>
       <c r="L600" s="2" t="e">
-        <f>AVERAGE(B600:K600)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M600" s="5" t="e">
-        <f>_xlfn.STDEV.P(B600:K600)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7432,11 +7432,11 @@
         <v>16000</v>
       </c>
       <c r="L601" s="2" t="e">
-        <f>AVERAGE(B601:K601)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M601" s="5" t="e">
-        <f>_xlfn.STDEV.P(B601:K601)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7445,11 +7445,11 @@
         <v>32000</v>
       </c>
       <c r="L602" s="2" t="e">
-        <f>AVERAGE(B602:K602)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M602" s="5" t="e">
-        <f>_xlfn.STDEV.P(B602:K602)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7458,11 +7458,11 @@
         <v>64000</v>
       </c>
       <c r="L603" s="2" t="e">
-        <f>AVERAGE(B603:K603)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M603" s="5" t="e">
-        <f>_xlfn.STDEV.P(B603:K603)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7471,11 +7471,11 @@
         <v>128000</v>
       </c>
       <c r="L604" s="2" t="e">
-        <f>AVERAGE(B604:K604)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M604" s="5" t="e">
-        <f>_xlfn.STDEV.P(B604:K604)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7484,11 +7484,11 @@
         <v>256000</v>
       </c>
       <c r="L605" s="2" t="e">
-        <f>AVERAGE(B605:K605)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M605" s="5" t="e">
-        <f>_xlfn.STDEV.P(B605:K605)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7497,11 +7497,11 @@
         <v>512000</v>
       </c>
       <c r="L606" s="2" t="e">
-        <f>AVERAGE(B606:K606)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M606" s="5" t="e">
-        <f>_xlfn.STDEV.P(B606:K606)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7510,11 +7510,11 @@
         <v>1024000</v>
       </c>
       <c r="L607" s="2" t="e">
-        <f>AVERAGE(B607:K607)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M607" s="5" t="e">
-        <f>_xlfn.STDEV.P(B607:K607)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7523,11 +7523,11 @@
         <v>2048000</v>
       </c>
       <c r="L608" s="2" t="e">
-        <f>AVERAGE(B608:K608)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M608" s="5" t="e">
-        <f>_xlfn.STDEV.P(B608:K608)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7536,11 +7536,11 @@
         <v>4096000</v>
       </c>
       <c r="L609" s="2" t="e">
-        <f>AVERAGE(B609:K609)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M609" s="5" t="e">
-        <f>_xlfn.STDEV.P(B609:K609)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7549,11 +7549,11 @@
         <v>8192000</v>
       </c>
       <c r="L610" s="2" t="e">
-        <f>AVERAGE(B610:K610)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M610" s="5" t="e">
-        <f>_xlfn.STDEV.P(B610:K610)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7562,11 +7562,11 @@
         <v>16384000</v>
       </c>
       <c r="L611" s="2" t="e">
-        <f>AVERAGE(B611:K611)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M611" s="5" t="e">
-        <f>_xlfn.STDEV.P(B611:K611)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7575,11 +7575,11 @@
         <v>32768000</v>
       </c>
       <c r="L612" s="2" t="e">
-        <f>AVERAGE(B612:K612)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M612" s="5" t="e">
-        <f>_xlfn.STDEV.P(B612:K612)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>65536000</v>
       </c>
       <c r="L613" s="2" t="e">
-        <f>AVERAGE(B613:K613)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M613" s="5" t="e">
-        <f>_xlfn.STDEV.P(B613:K613)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7601,11 +7601,11 @@
         <v>1000</v>
       </c>
       <c r="L616" s="2" t="e">
-        <f>AVERAGE(B616:K616)</f>
+        <f t="shared" ref="L616:L632" si="64">AVERAGE(B616:K616)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M616" s="5" t="e">
-        <f>_xlfn.STDEV.P(B616:K616)</f>
+        <f t="shared" ref="M616:M632" si="65">_xlfn.STDEV.P(B616:K616)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7614,11 +7614,11 @@
         <v>2000</v>
       </c>
       <c r="L617" s="2" t="e">
-        <f>AVERAGE(B617:K617)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M617" s="5" t="e">
-        <f>_xlfn.STDEV.P(B617:K617)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7627,11 +7627,11 @@
         <v>4000</v>
       </c>
       <c r="L618" s="2" t="e">
-        <f>AVERAGE(B618:K618)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M618" s="5" t="e">
-        <f>_xlfn.STDEV.P(B618:K618)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7640,11 +7640,11 @@
         <v>8000</v>
       </c>
       <c r="L619" s="2" t="e">
-        <f>AVERAGE(B619:K619)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M619" s="5" t="e">
-        <f>_xlfn.STDEV.P(B619:K619)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7653,11 +7653,11 @@
         <v>16000</v>
       </c>
       <c r="L620" s="2" t="e">
-        <f>AVERAGE(B620:K620)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M620" s="5" t="e">
-        <f>_xlfn.STDEV.P(B620:K620)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7666,11 +7666,11 @@
         <v>32000</v>
       </c>
       <c r="L621" s="2" t="e">
-        <f>AVERAGE(B621:K621)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M621" s="5" t="e">
-        <f>_xlfn.STDEV.P(B621:K621)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7679,11 +7679,11 @@
         <v>64000</v>
       </c>
       <c r="L622" s="2" t="e">
-        <f>AVERAGE(B622:K622)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M622" s="5" t="e">
-        <f>_xlfn.STDEV.P(B622:K622)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7692,11 +7692,11 @@
         <v>128000</v>
       </c>
       <c r="L623" s="2" t="e">
-        <f>AVERAGE(B623:K623)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M623" s="5" t="e">
-        <f>_xlfn.STDEV.P(B623:K623)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7705,11 +7705,11 @@
         <v>256000</v>
       </c>
       <c r="L624" s="2" t="e">
-        <f>AVERAGE(B624:K624)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M624" s="5" t="e">
-        <f>_xlfn.STDEV.P(B624:K624)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7718,11 +7718,11 @@
         <v>512000</v>
       </c>
       <c r="L625" s="2" t="e">
-        <f>AVERAGE(B625:K625)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M625" s="5" t="e">
-        <f>_xlfn.STDEV.P(B625:K625)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7731,11 +7731,11 @@
         <v>1024000</v>
       </c>
       <c r="L626" s="2" t="e">
-        <f>AVERAGE(B626:K626)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M626" s="5" t="e">
-        <f>_xlfn.STDEV.P(B626:K626)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7744,11 +7744,11 @@
         <v>2048000</v>
       </c>
       <c r="L627" s="2" t="e">
-        <f>AVERAGE(B627:K627)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M627" s="5" t="e">
-        <f>_xlfn.STDEV.P(B627:K627)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7757,11 +7757,11 @@
         <v>4096000</v>
       </c>
       <c r="L628" s="2" t="e">
-        <f>AVERAGE(B628:K628)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M628" s="5" t="e">
-        <f>_xlfn.STDEV.P(B628:K628)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7770,11 +7770,11 @@
         <v>8192000</v>
       </c>
       <c r="L629" s="2" t="e">
-        <f>AVERAGE(B629:K629)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M629" s="5" t="e">
-        <f>_xlfn.STDEV.P(B629:K629)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7783,11 +7783,11 @@
         <v>16384000</v>
       </c>
       <c r="L630" s="2" t="e">
-        <f>AVERAGE(B630:K630)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M630" s="5" t="e">
-        <f>_xlfn.STDEV.P(B630:K630)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7796,11 +7796,11 @@
         <v>32768000</v>
       </c>
       <c r="L631" s="2" t="e">
-        <f>AVERAGE(B631:K631)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M631" s="5" t="e">
-        <f>_xlfn.STDEV.P(B631:K631)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7809,11 +7809,11 @@
         <v>65536000</v>
       </c>
       <c r="L632" s="2" t="e">
-        <f>AVERAGE(B632:K632)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M632" s="5" t="e">
-        <f>_xlfn.STDEV.P(B632:K632)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7822,11 +7822,11 @@
         <v>1000</v>
       </c>
       <c r="L635" s="2" t="e">
-        <f>AVERAGE(B635:K635)</f>
+        <f t="shared" ref="L635:L651" si="66">AVERAGE(B635:K635)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M635" s="5" t="e">
-        <f>_xlfn.STDEV.P(B635:K635)</f>
+        <f t="shared" ref="M635:M651" si="67">_xlfn.STDEV.P(B635:K635)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7835,11 +7835,11 @@
         <v>2000</v>
       </c>
       <c r="L636" s="2" t="e">
-        <f>AVERAGE(B636:K636)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M636" s="5" t="e">
-        <f>_xlfn.STDEV.P(B636:K636)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7848,11 +7848,11 @@
         <v>4000</v>
       </c>
       <c r="L637" s="2" t="e">
-        <f>AVERAGE(B637:K637)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M637" s="5" t="e">
-        <f>_xlfn.STDEV.P(B637:K637)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7861,11 +7861,11 @@
         <v>8000</v>
       </c>
       <c r="L638" s="2" t="e">
-        <f>AVERAGE(B638:K638)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M638" s="5" t="e">
-        <f>_xlfn.STDEV.P(B638:K638)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7874,11 +7874,11 @@
         <v>16000</v>
       </c>
       <c r="L639" s="2" t="e">
-        <f>AVERAGE(B639:K639)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M639" s="5" t="e">
-        <f>_xlfn.STDEV.P(B639:K639)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7887,11 +7887,11 @@
         <v>32000</v>
       </c>
       <c r="L640" s="2" t="e">
-        <f>AVERAGE(B640:K640)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M640" s="5" t="e">
-        <f>_xlfn.STDEV.P(B640:K640)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7900,11 +7900,11 @@
         <v>64000</v>
       </c>
       <c r="L641" s="2" t="e">
-        <f>AVERAGE(B641:K641)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M641" s="5" t="e">
-        <f>_xlfn.STDEV.P(B641:K641)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7913,11 +7913,11 @@
         <v>128000</v>
       </c>
       <c r="L642" s="2" t="e">
-        <f>AVERAGE(B642:K642)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M642" s="5" t="e">
-        <f>_xlfn.STDEV.P(B642:K642)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7926,11 +7926,11 @@
         <v>256000</v>
       </c>
       <c r="L643" s="2" t="e">
-        <f>AVERAGE(B643:K643)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M643" s="5" t="e">
-        <f>_xlfn.STDEV.P(B643:K643)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7939,11 +7939,11 @@
         <v>512000</v>
       </c>
       <c r="L644" s="2" t="e">
-        <f>AVERAGE(B644:K644)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M644" s="5" t="e">
-        <f>_xlfn.STDEV.P(B644:K644)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7952,11 +7952,11 @@
         <v>1024000</v>
       </c>
       <c r="L645" s="2" t="e">
-        <f>AVERAGE(B645:K645)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M645" s="5" t="e">
-        <f>_xlfn.STDEV.P(B645:K645)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7965,11 +7965,11 @@
         <v>2048000</v>
       </c>
       <c r="L646" s="2" t="e">
-        <f>AVERAGE(B646:K646)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M646" s="5" t="e">
-        <f>_xlfn.STDEV.P(B646:K646)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7978,11 +7978,11 @@
         <v>4096000</v>
       </c>
       <c r="L647" s="2" t="e">
-        <f>AVERAGE(B647:K647)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M647" s="5" t="e">
-        <f>_xlfn.STDEV.P(B647:K647)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7991,11 +7991,11 @@
         <v>8192000</v>
       </c>
       <c r="L648" s="2" t="e">
-        <f>AVERAGE(B648:K648)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M648" s="5" t="e">
-        <f>_xlfn.STDEV.P(B648:K648)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8004,11 +8004,11 @@
         <v>16384000</v>
       </c>
       <c r="L649" s="2" t="e">
-        <f>AVERAGE(B649:K649)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M649" s="5" t="e">
-        <f>_xlfn.STDEV.P(B649:K649)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8017,11 +8017,11 @@
         <v>32768000</v>
       </c>
       <c r="L650" s="2" t="e">
-        <f>AVERAGE(B650:K650)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M650" s="5" t="e">
-        <f>_xlfn.STDEV.P(B650:K650)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8030,11 +8030,11 @@
         <v>65536000</v>
       </c>
       <c r="L651" s="2" t="e">
-        <f>AVERAGE(B651:K651)</f>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M651" s="5" t="e">
-        <f>_xlfn.STDEV.P(B651:K651)</f>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8043,11 +8043,11 @@
         <v>1000</v>
       </c>
       <c r="L654" s="2" t="e">
-        <f>AVERAGE(B654:K654)</f>
+        <f t="shared" ref="L654:L670" si="68">AVERAGE(B654:K654)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M654" s="5" t="e">
-        <f>_xlfn.STDEV.P(B654:K654)</f>
+        <f t="shared" ref="M654:M670" si="69">_xlfn.STDEV.P(B654:K654)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8056,11 +8056,11 @@
         <v>2000</v>
       </c>
       <c r="L655" s="2" t="e">
-        <f>AVERAGE(B655:K655)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M655" s="5" t="e">
-        <f>_xlfn.STDEV.P(B655:K655)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8069,11 +8069,11 @@
         <v>4000</v>
       </c>
       <c r="L656" s="2" t="e">
-        <f>AVERAGE(B656:K656)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M656" s="5" t="e">
-        <f>_xlfn.STDEV.P(B656:K656)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8082,11 +8082,11 @@
         <v>8000</v>
       </c>
       <c r="L657" s="2" t="e">
-        <f>AVERAGE(B657:K657)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M657" s="5" t="e">
-        <f>_xlfn.STDEV.P(B657:K657)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8095,11 +8095,11 @@
         <v>16000</v>
       </c>
       <c r="L658" s="2" t="e">
-        <f>AVERAGE(B658:K658)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M658" s="5" t="e">
-        <f>_xlfn.STDEV.P(B658:K658)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8108,11 +8108,11 @@
         <v>32000</v>
       </c>
       <c r="L659" s="2" t="e">
-        <f>AVERAGE(B659:K659)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M659" s="5" t="e">
-        <f>_xlfn.STDEV.P(B659:K659)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8121,11 +8121,11 @@
         <v>64000</v>
       </c>
       <c r="L660" s="2" t="e">
-        <f>AVERAGE(B660:K660)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M660" s="5" t="e">
-        <f>_xlfn.STDEV.P(B660:K660)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8134,11 +8134,11 @@
         <v>128000</v>
       </c>
       <c r="L661" s="2" t="e">
-        <f>AVERAGE(B661:K661)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M661" s="5" t="e">
-        <f>_xlfn.STDEV.P(B661:K661)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8147,11 +8147,11 @@
         <v>256000</v>
       </c>
       <c r="L662" s="2" t="e">
-        <f>AVERAGE(B662:K662)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M662" s="5" t="e">
-        <f>_xlfn.STDEV.P(B662:K662)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8160,11 +8160,11 @@
         <v>512000</v>
       </c>
       <c r="L663" s="2" t="e">
-        <f>AVERAGE(B663:K663)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M663" s="5" t="e">
-        <f>_xlfn.STDEV.P(B663:K663)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8173,11 +8173,11 @@
         <v>1024000</v>
       </c>
       <c r="L664" s="2" t="e">
-        <f>AVERAGE(B664:K664)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M664" s="5" t="e">
-        <f>_xlfn.STDEV.P(B664:K664)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8186,11 +8186,11 @@
         <v>2048000</v>
       </c>
       <c r="L665" s="2" t="e">
-        <f>AVERAGE(B665:K665)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M665" s="5" t="e">
-        <f>_xlfn.STDEV.P(B665:K665)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8199,11 +8199,11 @@
         <v>4096000</v>
       </c>
       <c r="L666" s="2" t="e">
-        <f>AVERAGE(B666:K666)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M666" s="5" t="e">
-        <f>_xlfn.STDEV.P(B666:K666)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8212,11 +8212,11 @@
         <v>8192000</v>
       </c>
       <c r="L667" s="2" t="e">
-        <f>AVERAGE(B667:K667)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M667" s="5" t="e">
-        <f>_xlfn.STDEV.P(B667:K667)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8225,11 +8225,11 @@
         <v>16384000</v>
       </c>
       <c r="L668" s="2" t="e">
-        <f>AVERAGE(B668:K668)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M668" s="5" t="e">
-        <f>_xlfn.STDEV.P(B668:K668)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8238,11 +8238,11 @@
         <v>32768000</v>
       </c>
       <c r="L669" s="2" t="e">
-        <f>AVERAGE(B669:K669)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M669" s="5" t="e">
-        <f>_xlfn.STDEV.P(B669:K669)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8251,11 +8251,11 @@
         <v>65536000</v>
       </c>
       <c r="L670" s="2" t="e">
-        <f>AVERAGE(B670:K670)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M670" s="5" t="e">
-        <f>_xlfn.STDEV.P(B670:K670)</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8264,11 +8264,11 @@
         <v>1000</v>
       </c>
       <c r="L673" s="2" t="e">
-        <f>AVERAGE(B673:K673)</f>
+        <f t="shared" ref="L673:L689" si="70">AVERAGE(B673:K673)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M673" s="5" t="e">
-        <f>_xlfn.STDEV.P(B673:K673)</f>
+        <f t="shared" ref="M673:M689" si="71">_xlfn.STDEV.P(B673:K673)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8277,11 +8277,11 @@
         <v>2000</v>
       </c>
       <c r="L674" s="2" t="e">
-        <f>AVERAGE(B674:K674)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M674" s="5" t="e">
-        <f>_xlfn.STDEV.P(B674:K674)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8290,11 +8290,11 @@
         <v>4000</v>
       </c>
       <c r="L675" s="2" t="e">
-        <f>AVERAGE(B675:K675)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M675" s="5" t="e">
-        <f>_xlfn.STDEV.P(B675:K675)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8303,11 +8303,11 @@
         <v>8000</v>
       </c>
       <c r="L676" s="2" t="e">
-        <f>AVERAGE(B676:K676)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M676" s="5" t="e">
-        <f>_xlfn.STDEV.P(B676:K676)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8316,11 +8316,11 @@
         <v>16000</v>
       </c>
       <c r="L677" s="2" t="e">
-        <f>AVERAGE(B677:K677)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M677" s="5" t="e">
-        <f>_xlfn.STDEV.P(B677:K677)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8329,11 +8329,11 @@
         <v>32000</v>
       </c>
       <c r="L678" s="2" t="e">
-        <f>AVERAGE(B678:K678)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M678" s="5" t="e">
-        <f>_xlfn.STDEV.P(B678:K678)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8342,11 +8342,11 @@
         <v>64000</v>
       </c>
       <c r="L679" s="2" t="e">
-        <f>AVERAGE(B679:K679)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M679" s="5" t="e">
-        <f>_xlfn.STDEV.P(B679:K679)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8355,11 +8355,11 @@
         <v>128000</v>
       </c>
       <c r="L680" s="2" t="e">
-        <f>AVERAGE(B680:K680)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M680" s="5" t="e">
-        <f>_xlfn.STDEV.P(B680:K680)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8368,11 +8368,11 @@
         <v>256000</v>
       </c>
       <c r="L681" s="2" t="e">
-        <f>AVERAGE(B681:K681)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M681" s="5" t="e">
-        <f>_xlfn.STDEV.P(B681:K681)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8381,11 +8381,11 @@
         <v>512000</v>
       </c>
       <c r="L682" s="2" t="e">
-        <f>AVERAGE(B682:K682)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M682" s="5" t="e">
-        <f>_xlfn.STDEV.P(B682:K682)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8394,11 +8394,11 @@
         <v>1024000</v>
       </c>
       <c r="L683" s="2" t="e">
-        <f>AVERAGE(B683:K683)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M683" s="5" t="e">
-        <f>_xlfn.STDEV.P(B683:K683)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8407,11 +8407,11 @@
         <v>2048000</v>
       </c>
       <c r="L684" s="2" t="e">
-        <f>AVERAGE(B684:K684)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M684" s="5" t="e">
-        <f>_xlfn.STDEV.P(B684:K684)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8420,11 +8420,11 @@
         <v>4096000</v>
       </c>
       <c r="L685" s="2" t="e">
-        <f>AVERAGE(B685:K685)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M685" s="5" t="e">
-        <f>_xlfn.STDEV.P(B685:K685)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8433,11 +8433,11 @@
         <v>8192000</v>
       </c>
       <c r="L686" s="2" t="e">
-        <f>AVERAGE(B686:K686)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M686" s="5" t="e">
-        <f>_xlfn.STDEV.P(B686:K686)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8446,11 +8446,11 @@
         <v>16384000</v>
       </c>
       <c r="L687" s="2" t="e">
-        <f>AVERAGE(B687:K687)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M687" s="5" t="e">
-        <f>_xlfn.STDEV.P(B687:K687)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8459,11 +8459,11 @@
         <v>32768000</v>
       </c>
       <c r="L688" s="2" t="e">
-        <f>AVERAGE(B688:K688)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M688" s="5" t="e">
-        <f>_xlfn.STDEV.P(B688:K688)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8472,11 +8472,11 @@
         <v>65536000</v>
       </c>
       <c r="L689" s="2" t="e">
-        <f>AVERAGE(B689:K689)</f>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M689" s="5" t="e">
-        <f>_xlfn.STDEV.P(B689:K689)</f>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
